--- a/RUDN/Correlations/deep.Corr_in_IDB.nan.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_IDB.nan.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IDB</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IDB</t>
+  </si>
   <si>
     <t>IC.REG.DURS.FE:IDB</t>
   </si>
@@ -22,15 +28,138 @@
     <t>IC.REG.DURS.MA:IDB</t>
   </si>
   <si>
+    <t>IC.REG.PROC.FE:IDB</t>
+  </si>
+  <si>
     <t>IC.REG.PROC.MA:IDB</t>
   </si>
   <si>
+    <t>IT.CEL.SETS.P2:IDB</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IDB</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IDB</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IDB</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IDB</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IDB</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IDB</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IDB</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IDB</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IDB</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:IDB</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:IDB</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:IDB</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IDB</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IDB</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.FE.ZS:IDB</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IDB</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.FE.ZS:IDB</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.ZS:IDB</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IDB</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.FE.ZS:IDB</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IDB</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FE.ZS:IDB</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FM.ZS:IDB</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IDB</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IDB</t>
+  </si>
+  <si>
     <t>SL.UEM.1524.FE.ZS:IDB</t>
   </si>
   <si>
+    <t>SL.UEM.1524.FM.ZS:IDB</t>
+  </si>
+  <si>
     <t>SL.UEM.1524.MA.ZS:IDB</t>
   </si>
   <si>
+    <t>SP.DYN.IMRT.IN:IDB</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IDB</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IDB</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IDB</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IDB</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IDB</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IDB</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IDB</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IDB</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IDB:p-value</t>
+  </si>
+  <si>
     <t>IC.REG.DURS.FE:IDB:cor-value</t>
   </si>
   <si>
@@ -55,10 +184,232 @@
     <t>IC.REG.PROC.MA:IDB:p-value</t>
   </si>
   <si>
+    <t>IT.CEL.SETS.P2:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS.P2:IDB:p-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IDB:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IDB:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IDB:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IDB:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IDB:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IDB:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.FE.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.FE.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.FE.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.FE.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.FE.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.FE.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.FE.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.FE.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FE.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FE.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FM.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FM.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IDB:p-value</t>
+  </si>
+  <si>
     <t>SL.UEM.1524.FE.ZS:IDB:cor-value</t>
   </si>
   <si>
     <t>SL.UEM.1524.FE.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.MA.ZS:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.MA.ZS:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IDB:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IDB:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IDB:p-value</t>
   </si>
 </sst>
 </file>
@@ -416,13 +767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,145 +789,6490 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C2">
+        <v>0.9999999724090727</v>
+      </c>
+      <c r="D2">
+        <v>0.8422057571905009</v>
+      </c>
+      <c r="E2">
+        <v>0.8430822212022977</v>
+      </c>
+      <c r="F2">
+        <v>0.9548983998101698</v>
+      </c>
+      <c r="G2">
+        <v>0.955745244232915</v>
+      </c>
+      <c r="H2">
+        <v>-0.927299804365262</v>
+      </c>
+      <c r="I2">
+        <v>-0.8468233937328872</v>
+      </c>
+      <c r="J2">
+        <v>-0.917108072853699</v>
+      </c>
+      <c r="K2">
+        <v>0.5789314407606621</v>
+      </c>
+      <c r="L2">
+        <v>-0.9208021453982944</v>
+      </c>
+      <c r="M2">
+        <v>-0.8931673185229677</v>
+      </c>
+      <c r="N2">
+        <v>-0.9056816305619366</v>
+      </c>
+      <c r="O2">
+        <v>-0.9297273193313386</v>
+      </c>
+      <c r="P2">
+        <v>-0.8167909110261057</v>
+      </c>
+      <c r="Q2">
+        <v>0.9015806137399832</v>
+      </c>
+      <c r="R2">
+        <v>0.9338145866195999</v>
+      </c>
+      <c r="T2">
+        <v>-0.8771796212751166</v>
+      </c>
+      <c r="U2">
+        <v>-0.7962069278371896</v>
+      </c>
+      <c r="V2">
+        <v>-0.5991975149997683</v>
+      </c>
+      <c r="W2">
+        <v>-0.9096524284956425</v>
+      </c>
+      <c r="X2">
+        <v>0.5692861174386324</v>
+      </c>
+      <c r="Y2">
+        <v>-0.9453872140419464</v>
+      </c>
+      <c r="Z2">
+        <v>-0.9024286218850861</v>
+      </c>
+      <c r="AA2">
+        <v>-0.9417702574668416</v>
+      </c>
+      <c r="AB2">
+        <v>-0.9366204954192408</v>
+      </c>
+      <c r="AC2">
+        <v>0.7373335755004914</v>
+      </c>
+      <c r="AD2">
+        <v>-0.9678714758799902</v>
+      </c>
+      <c r="AE2">
+        <v>-0.9521617838604596</v>
+      </c>
+      <c r="AF2">
+        <v>-0.9279223241216121</v>
+      </c>
+      <c r="AG2">
+        <v>-0.9207097217758579</v>
+      </c>
+      <c r="AH2">
+        <v>0.3341915873693173</v>
+      </c>
+      <c r="AI2">
+        <v>-0.1615879808778739</v>
+      </c>
+      <c r="AJ2">
+        <v>0.3555000371117361</v>
+      </c>
+      <c r="AK2">
+        <v>0.9316756365348906</v>
+      </c>
+      <c r="AL2">
+        <v>-0.901352697548378</v>
+      </c>
+      <c r="AM2">
+        <v>-0.915365662332094</v>
+      </c>
+      <c r="AN2">
+        <v>-0.9141700055788229</v>
+      </c>
+      <c r="AO2">
+        <v>-0.9147672716305812</v>
+      </c>
+      <c r="AP2">
+        <v>-0.9083561283501154</v>
+      </c>
+      <c r="AR2">
+        <v>-0.9108512656607977</v>
+      </c>
+      <c r="AS2">
+        <v>-0.9105366022096621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>6.369271397263513e-45</v>
+      </c>
+      <c r="D3">
+        <v>0.0001572069272337009</v>
+      </c>
+      <c r="E3">
+        <v>0.0001523444214621314</v>
+      </c>
+      <c r="F3">
+        <v>1.102287984840761e-07</v>
+      </c>
+      <c r="G3">
+        <v>9.856102324284416e-08</v>
+      </c>
+      <c r="H3">
+        <v>1.819977926804612e-06</v>
+      </c>
+      <c r="I3">
+        <v>0.0001329393721893668</v>
+      </c>
+      <c r="J3">
+        <v>3.909701677676563e-06</v>
+      </c>
+      <c r="K3">
+        <v>0.03006196048147057</v>
+      </c>
+      <c r="L3">
+        <v>2.998479292977727e-06</v>
+      </c>
+      <c r="M3">
+        <v>1.698858120199633e-05</v>
+      </c>
+      <c r="N3">
+        <v>8.272419435461047e-06</v>
+      </c>
+      <c r="O3">
+        <v>1.492436638691387e-06</v>
+      </c>
+      <c r="P3">
+        <v>0.0003633079853634912</v>
+      </c>
+      <c r="Q3">
+        <v>1.058212500533802e-05</v>
+      </c>
+      <c r="R3">
+        <v>1.051135226004825e-06</v>
+      </c>
+      <c r="T3">
+        <v>3.784235255491797e-05</v>
+      </c>
+      <c r="U3">
+        <v>0.0006561704817918422</v>
+      </c>
+      <c r="V3">
+        <v>0.02354254418784281</v>
+      </c>
+      <c r="W3">
+        <v>6.44744187365405e-06</v>
+      </c>
+      <c r="X3">
+        <v>0.03359827473636658</v>
+      </c>
+      <c r="Y3">
+        <v>3.403153996181305e-07</v>
+      </c>
+      <c r="Z3">
+        <v>1.006570522917039e-05</v>
+      </c>
+      <c r="AA3">
+        <v>4.960697186410222e-07</v>
+      </c>
+      <c r="AB3">
+        <v>8.155622712181742e-07</v>
+      </c>
+      <c r="AC3">
+        <v>0.002618637285225356</v>
+      </c>
+      <c r="AD3">
+        <v>1.481653915993053e-08</v>
+      </c>
+      <c r="AE3">
+        <v>1.560268038907438e-07</v>
+      </c>
+      <c r="AF3">
+        <v>1.730826415775361e-06</v>
+      </c>
+      <c r="AG3">
+        <v>3.018918845405262e-06</v>
+      </c>
+      <c r="AH3">
+        <v>0.2428828929389188</v>
+      </c>
+      <c r="AI3">
+        <v>0.5810265696307642</v>
+      </c>
+      <c r="AJ3">
+        <v>0.2122539057870191</v>
+      </c>
+      <c r="AK3">
+        <v>1.26617592879796e-06</v>
+      </c>
+      <c r="AL3">
+        <v>1.072456430417942e-05</v>
+      </c>
+      <c r="AM3">
+        <v>4.412384482630645e-06</v>
+      </c>
+      <c r="AN3">
+        <v>4.787151589918521e-06</v>
+      </c>
+      <c r="AO3">
+        <v>4.596805036663968e-06</v>
+      </c>
+      <c r="AP3">
+        <v>7.002582576290801e-06</v>
+      </c>
+      <c r="AR3">
+        <v>5.966722820359576e-06</v>
+      </c>
+      <c r="AS3">
+        <v>6.089949279159035e-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>0.8422095083639409</v>
+      </c>
+      <c r="E4">
+        <v>0.8430863945592898</v>
+      </c>
+      <c r="F4">
+        <v>0.9549199351484292</v>
+      </c>
+      <c r="G4">
+        <v>0.9557698637802921</v>
+      </c>
+      <c r="H4">
+        <v>-0.9273681649540744</v>
+      </c>
+      <c r="I4">
+        <v>-0.8468534902988037</v>
+      </c>
+      <c r="J4">
+        <v>-0.9171525737589596</v>
+      </c>
+      <c r="K4">
+        <v>0.5789365834961242</v>
+      </c>
+      <c r="L4">
+        <v>-0.9208477943847101</v>
+      </c>
+      <c r="M4">
+        <v>-0.893210060126747</v>
+      </c>
+      <c r="N4">
+        <v>-0.9057263801915081</v>
+      </c>
+      <c r="O4">
+        <v>-0.9297621724743673</v>
+      </c>
+      <c r="P4">
+        <v>-0.8168198809085336</v>
+      </c>
+      <c r="Q4">
+        <v>0.901648124342281</v>
+      </c>
+      <c r="R4">
+        <v>0.9338599434086762</v>
+      </c>
+      <c r="T4">
+        <v>-0.8772218637963292</v>
+      </c>
+      <c r="U4">
+        <v>-0.7962521986248564</v>
+      </c>
+      <c r="V4">
+        <v>-0.5992676120420481</v>
+      </c>
+      <c r="W4">
+        <v>-0.9096700551150034</v>
+      </c>
+      <c r="X4">
+        <v>0.5693664876340283</v>
+      </c>
+      <c r="Y4">
+        <v>-0.9454178718764685</v>
+      </c>
+      <c r="Z4">
+        <v>-0.9024612356334121</v>
+      </c>
+      <c r="AA4">
+        <v>-0.9418005825228389</v>
+      </c>
+      <c r="AB4">
+        <v>-0.936651123459778</v>
+      </c>
+      <c r="AC4">
+        <v>0.7374351999873597</v>
+      </c>
+      <c r="AD4">
+        <v>-0.9679032808529</v>
+      </c>
+      <c r="AE4">
+        <v>-0.9521931890298033</v>
+      </c>
+      <c r="AF4">
+        <v>-0.9279621957467786</v>
+      </c>
+      <c r="AG4">
+        <v>-0.9207493286827039</v>
+      </c>
+      <c r="AH4">
+        <v>0.334155925663972</v>
+      </c>
+      <c r="AI4">
+        <v>-0.1617559628805738</v>
+      </c>
+      <c r="AJ4">
+        <v>0.3555417890973294</v>
+      </c>
+      <c r="AK4">
+        <v>0.9317200855232577</v>
+      </c>
+      <c r="AL4">
+        <v>-0.9013954852032304</v>
+      </c>
+      <c r="AM4">
+        <v>-0.9154070951559586</v>
+      </c>
+      <c r="AN4">
+        <v>-0.9142111442626717</v>
+      </c>
+      <c r="AO4">
+        <v>-0.9148085567000953</v>
+      </c>
+      <c r="AP4">
+        <v>-0.9083980146826839</v>
+      </c>
+      <c r="AR4">
+        <v>-0.9108931640759493</v>
+      </c>
+      <c r="AS4">
+        <v>-0.9105783948474678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>0.0001571858514729977</v>
+      </c>
+      <c r="E5">
+        <v>0.0001523215635427328</v>
+      </c>
+      <c r="F5">
+        <v>1.099185431690624e-07</v>
+      </c>
+      <c r="G5">
+        <v>9.823776904882837e-08</v>
+      </c>
+      <c r="H5">
+        <v>1.810006874772785e-06</v>
+      </c>
+      <c r="I5">
+        <v>0.000132791834277958</v>
+      </c>
+      <c r="J5">
+        <v>3.897509013469454e-06</v>
+      </c>
+      <c r="K5">
+        <v>0.03006015223275368</v>
+      </c>
+      <c r="L5">
+        <v>2.988426085028232e-06</v>
+      </c>
+      <c r="M5">
+        <v>1.69494611106187e-05</v>
+      </c>
+      <c r="N5">
+        <v>8.249719415022411e-06</v>
+      </c>
+      <c r="O5">
+        <v>1.488115196786091e-06</v>
+      </c>
+      <c r="P5">
+        <v>0.0003629876938353997</v>
+      </c>
+      <c r="Q5">
+        <v>1.054023252946043e-05</v>
+      </c>
+      <c r="R5">
+        <v>1.046925027248791e-06</v>
+      </c>
+      <c r="T5">
+        <v>3.776791785763164e-05</v>
+      </c>
+      <c r="U5">
+        <v>0.0006553654251922043</v>
+      </c>
+      <c r="V5">
+        <v>0.02352202249315744</v>
+      </c>
+      <c r="W5">
+        <v>6.440150412627236e-06</v>
+      </c>
+      <c r="X5">
+        <v>0.03356759184293303</v>
+      </c>
+      <c r="Y5">
+        <v>3.391935249967619e-07</v>
+      </c>
+      <c r="Z5">
+        <v>1.004626489431026e-05</v>
+      </c>
+      <c r="AA5">
+        <v>4.945545534177542e-07</v>
+      </c>
+      <c r="AB5">
+        <v>8.132551425971185e-07</v>
+      </c>
+      <c r="AC5">
+        <v>0.002613197597768038</v>
+      </c>
+      <c r="AD5">
+        <v>1.472976934872359e-08</v>
+      </c>
+      <c r="AE5">
+        <v>1.554238931096595e-07</v>
+      </c>
+      <c r="AF5">
+        <v>1.72524132019885e-06</v>
+      </c>
+      <c r="AG5">
+        <v>3.010145754374817e-06</v>
+      </c>
+      <c r="AH5">
+        <v>0.2429362954759064</v>
+      </c>
+      <c r="AI5">
+        <v>0.5806282391807726</v>
+      </c>
+      <c r="AJ5">
+        <v>0.2121963954833223</v>
+      </c>
+      <c r="AK5">
+        <v>1.261365067821515e-06</v>
+      </c>
+      <c r="AL5">
+        <v>1.069770438149187e-05</v>
+      </c>
+      <c r="AM5">
+        <v>4.399843797481538e-06</v>
+      </c>
+      <c r="AN5">
+        <v>4.773836485847874e-06</v>
+      </c>
+      <c r="AO5">
+        <v>4.583881072828599e-06</v>
+      </c>
+      <c r="AP5">
+        <v>6.984051208890249e-06</v>
+      </c>
+      <c r="AR5">
+        <v>5.950470523930666e-06</v>
+      </c>
+      <c r="AS5">
+        <v>6.073463352318575e-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
         <v>0.9999968905656036</v>
       </c>
-      <c r="E2">
+      <c r="H6">
+        <v>-0.8623803207176409</v>
+      </c>
+      <c r="I6">
+        <v>-0.9644533925986599</v>
+      </c>
+      <c r="R6">
+        <v>0.9257470351149385</v>
+      </c>
+      <c r="T6">
+        <v>-0.9537190831406773</v>
+      </c>
+      <c r="Z6">
+        <v>-0.8989772047909851</v>
+      </c>
+      <c r="AA6">
+        <v>-0.8885322391781476</v>
+      </c>
+      <c r="AH6">
         <v>0.3586032594224092</v>
       </c>
-      <c r="F2">
+      <c r="AJ6">
         <v>0.4713272207119553</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="AK6">
+        <v>0.9298814947565605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
         <v>1.30490078948058e-32</v>
       </c>
-      <c r="E3">
+      <c r="H7">
+        <v>7.243180450530813e-05</v>
+      </c>
+      <c r="I7">
+        <v>2.697536392191719e-08</v>
+      </c>
+      <c r="R7">
+        <v>2.058958590837211e-06</v>
+      </c>
+      <c r="T7">
+        <v>1.283623250042703e-07</v>
+      </c>
+      <c r="Z7">
+        <v>1.230507409387115e-05</v>
+      </c>
+      <c r="AA7">
+        <v>2.169314087720155e-05</v>
+      </c>
+      <c r="AH7">
         <v>0.2080060592703279</v>
       </c>
-      <c r="F3">
+      <c r="AJ7">
         <v>0.08888928750451036</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
+      <c r="AK7">
+        <v>1.473398446019366e-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>-0.8635555565498408</v>
+      </c>
+      <c r="I8">
+        <v>-0.9647941938205248</v>
+      </c>
+      <c r="R8">
+        <v>0.9265868031873488</v>
+      </c>
+      <c r="T8">
+        <v>-0.9542882728888451</v>
+      </c>
+      <c r="Z8">
+        <v>-0.8996622031845055</v>
+      </c>
+      <c r="AA8">
+        <v>-0.8893414289569987</v>
+      </c>
+      <c r="AH8">
         <v>0.3582913996858546</v>
       </c>
-      <c r="F4">
+      <c r="AJ8">
         <v>0.4714489341357639</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
+      <c r="AK8">
+        <v>0.9306958271450549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>6.898213078349951e-05</v>
+      </c>
+      <c r="I9">
+        <v>2.547919780661442e-08</v>
+      </c>
+      <c r="R9">
+        <v>1.926701312893823e-06</v>
+      </c>
+      <c r="T9">
+        <v>1.193248951917505e-07</v>
+      </c>
+      <c r="Z9">
+        <v>1.183093016997944e-05</v>
+      </c>
+      <c r="AA9">
+        <v>2.080292049336705e-05</v>
+      </c>
+      <c r="AH9">
         <v>0.2084305108828087</v>
       </c>
-      <c r="F5">
+      <c r="AJ9">
         <v>0.08879549833562912</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="AK9">
+        <v>1.376130803691224e-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
         <v>0.9449435263508662</v>
       </c>
-      <c r="C6">
+      <c r="E10">
         <v>0.9456088203797628</v>
       </c>
-      <c r="D6">
+      <c r="G10">
         <v>0.9998763671419119</v>
       </c>
-      <c r="E6">
+      <c r="H10">
+        <v>-0.9625638012782413</v>
+      </c>
+      <c r="I10">
+        <v>-0.9536638496063765</v>
+      </c>
+      <c r="R10">
+        <v>0.989698199018507</v>
+      </c>
+      <c r="T10">
+        <v>-0.9704790666549142</v>
+      </c>
+      <c r="Z10">
+        <v>-0.9470392501283944</v>
+      </c>
+      <c r="AA10">
+        <v>-0.9722395081808139</v>
+      </c>
+      <c r="AH10">
         <v>0.3332920398471329</v>
       </c>
-      <c r="F6">
+      <c r="AJ10">
         <v>0.4337119471332765</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
+      <c r="AK10">
+        <v>0.9900098112537532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
         <v>3.568978962623214e-07</v>
       </c>
-      <c r="C7">
+      <c r="E11">
         <v>3.32274650922971e-07</v>
       </c>
-      <c r="D7">
+      <c r="G11">
         <v>5.154426996320456e-23</v>
       </c>
-      <c r="E7">
+      <c r="H11">
+        <v>3.665597645517389e-08</v>
+      </c>
+      <c r="I11">
+        <v>1.292686451449734e-07</v>
+      </c>
+      <c r="R11">
+        <v>1.687968389402816e-11</v>
+      </c>
+      <c r="T11">
+        <v>8.966831827678166e-09</v>
+      </c>
+      <c r="Z11">
+        <v>2.840605279484223e-07</v>
+      </c>
+      <c r="AA11">
+        <v>6.224126230474118e-09</v>
+      </c>
+      <c r="AH11">
         <v>0.2442321323138547</v>
       </c>
-      <c r="F7">
+      <c r="AJ11">
         <v>0.1212972191168263</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
+      <c r="AK11">
+        <v>1.404813567028212e-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
         <v>0.9414369228864989</v>
       </c>
-      <c r="C8">
+      <c r="E12">
         <v>0.9421390669295083</v>
       </c>
-      <c r="E8">
+      <c r="H12">
+        <v>-0.9660579789664976</v>
+      </c>
+      <c r="I12">
+        <v>-0.9522015526490453</v>
+      </c>
+      <c r="R12">
+        <v>0.9909126054424154</v>
+      </c>
+      <c r="T12">
+        <v>-0.9703543887498313</v>
+      </c>
+      <c r="Z12">
+        <v>-0.9474459785740328</v>
+      </c>
+      <c r="AA12">
+        <v>-0.9729449832008648</v>
+      </c>
+      <c r="AH12">
         <v>0.3295876614940853</v>
       </c>
-      <c r="F8">
+      <c r="AJ12">
         <v>0.4333313580702869</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
+      <c r="AK12">
+        <v>0.9910779315499562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13">
         <v>5.129787264988559e-07</v>
       </c>
-      <c r="C9">
+      <c r="E13">
         <v>4.779003011734991e-07</v>
       </c>
-      <c r="E9">
+      <c r="H13">
+        <v>2.051721736389011e-08</v>
+      </c>
+      <c r="I13">
+        <v>1.55263655274627e-07</v>
+      </c>
+      <c r="R13">
+        <v>7.97363161163812e-12</v>
+      </c>
+      <c r="T13">
+        <v>9.193980622898856e-09</v>
+      </c>
+      <c r="Z13">
+        <v>2.714615724231916e-07</v>
+      </c>
+      <c r="AA13">
+        <v>5.341533736525322e-09</v>
+      </c>
+      <c r="AH13">
         <v>0.2498363985620164</v>
       </c>
-      <c r="F9">
+      <c r="AJ13">
         <v>0.1216610398612984</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
+      <c r="AK13">
+        <v>7.144429700760277e-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14">
+        <v>-0.983605813486346</v>
+      </c>
+      <c r="AK14">
+        <v>-0.9811736925288359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R15">
+        <v>2.705982438597812e-10</v>
+      </c>
+      <c r="AK15">
+        <v>6.173016916898223e-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16">
+        <v>0.8970328846925074</v>
+      </c>
+      <c r="R16">
+        <v>-0.9577671789396277</v>
+      </c>
+      <c r="AK16">
+        <v>-0.961691728025266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17">
+        <v>1.373645599186526e-05</v>
+      </c>
+      <c r="R17">
+        <v>7.477564791395772e-08</v>
+      </c>
+      <c r="AK17">
+        <v>4.200740862496188e-08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>-0.9051226983904488</v>
+      </c>
+      <c r="E18">
+        <v>-0.90592221573054</v>
+      </c>
+      <c r="F18">
+        <v>-0.9601863521875946</v>
+      </c>
+      <c r="G18">
+        <v>-0.9613582449157291</v>
+      </c>
+      <c r="H18">
+        <v>0.9647030656019767</v>
+      </c>
+      <c r="I18">
+        <v>0.9192082485247848</v>
+      </c>
+      <c r="K18">
+        <v>-0.4817396547836823</v>
+      </c>
+      <c r="L18">
+        <v>0.9954734911037668</v>
+      </c>
+      <c r="M18">
+        <v>0.981110304932554</v>
+      </c>
+      <c r="N18">
+        <v>0.9881427475937763</v>
+      </c>
+      <c r="O18">
+        <v>0.9633710741441082</v>
+      </c>
+      <c r="P18">
+        <v>0.902672094613415</v>
+      </c>
+      <c r="Q18">
+        <v>-0.8995182072780268</v>
+      </c>
+      <c r="R18">
+        <v>-0.9698230117481675</v>
+      </c>
+      <c r="T18">
+        <v>0.9500781787284304</v>
+      </c>
+      <c r="U18">
+        <v>0.6355400215102105</v>
+      </c>
+      <c r="V18">
+        <v>0.4022820964398811</v>
+      </c>
+      <c r="Z18">
+        <v>0.8970560211276886</v>
+      </c>
+      <c r="AA18">
+        <v>0.9531463306206043</v>
+      </c>
+      <c r="AB18">
+        <v>0.8413857616975754</v>
+      </c>
+      <c r="AC18">
+        <v>-0.902683493708655</v>
+      </c>
+      <c r="AD18">
+        <v>0.9407988181227372</v>
+      </c>
+      <c r="AE18">
+        <v>0.9312034865044053</v>
+      </c>
+      <c r="AF18">
+        <v>0.9654707942885915</v>
+      </c>
+      <c r="AG18">
+        <v>0.9635900157333136</v>
+      </c>
+      <c r="AH18">
+        <v>-0.2598312798247929</v>
+      </c>
+      <c r="AI18">
+        <v>0.2744509434150843</v>
+      </c>
+      <c r="AJ18">
+        <v>-0.340198194997169</v>
+      </c>
+      <c r="AK18">
+        <v>-0.9691237680560846</v>
+      </c>
+      <c r="AL18">
+        <v>0.9622552163906308</v>
+      </c>
+      <c r="AM18">
+        <v>0.9638379251306608</v>
+      </c>
+      <c r="AN18">
+        <v>0.9630676283158051</v>
+      </c>
+      <c r="AO18">
+        <v>0.9634535509053267</v>
+      </c>
+      <c r="AP18">
+        <v>0.9592398808426283</v>
+      </c>
+      <c r="AR18">
+        <v>0.9634312156187222</v>
+      </c>
+      <c r="AS18">
+        <v>0.9632260145072015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>8.560293634836578e-06</v>
+      </c>
+      <c r="E19">
+        <v>8.150979037733808e-06</v>
+      </c>
+      <c r="F19">
+        <v>5.276423009625632e-08</v>
+      </c>
+      <c r="G19">
+        <v>4.421773347661986e-08</v>
+      </c>
+      <c r="H19">
+        <v>2.5872352487663e-08</v>
+      </c>
+      <c r="I19">
+        <v>3.367374765102051e-06</v>
+      </c>
+      <c r="K19">
+        <v>0.08111356117345972</v>
+      </c>
+      <c r="L19">
+        <v>1.229860937456438e-13</v>
+      </c>
+      <c r="M19">
+        <v>6.297915603572863e-10</v>
+      </c>
+      <c r="N19">
+        <v>3.911432940785938e-11</v>
+      </c>
+      <c r="O19">
+        <v>3.221823685297641e-08</v>
+      </c>
+      <c r="P19">
+        <v>9.921318390997973e-06</v>
+      </c>
+      <c r="Q19">
+        <v>1.192933673405388e-05</v>
+      </c>
+      <c r="R19">
+        <v>1.021635803786796e-08</v>
+      </c>
+      <c r="T19">
+        <v>2.005926194065008e-07</v>
+      </c>
+      <c r="U19">
+        <v>0.01458129276594005</v>
+      </c>
+      <c r="V19">
+        <v>0.1538800153463862</v>
+      </c>
+      <c r="Z19">
+        <v>1.371865574515e-05</v>
+      </c>
+      <c r="AA19">
+        <v>1.380208106024075e-07</v>
+      </c>
+      <c r="AB19">
+        <v>0.0001618693364239582</v>
+      </c>
+      <c r="AC19">
+        <v>9.914600242133014e-06</v>
+      </c>
+      <c r="AD19">
+        <v>5.466765346207679e-07</v>
+      </c>
+      <c r="AE19">
+        <v>1.318218949930499e-06</v>
+      </c>
+      <c r="AF19">
+        <v>2.27121323966242e-08</v>
+      </c>
+      <c r="AG19">
+        <v>3.109469721885438e-08</v>
+      </c>
+      <c r="AH19">
+        <v>0.3696616616645737</v>
+      </c>
+      <c r="AI19">
+        <v>0.3423315560235694</v>
+      </c>
+      <c r="AJ19">
+        <v>0.2339903595224752</v>
+      </c>
+      <c r="AK19">
+        <v>1.170382681142101e-08</v>
+      </c>
+      <c r="AL19">
+        <v>3.848083561540317e-08</v>
+      </c>
+      <c r="AM19">
+        <v>2.986190246681528e-08</v>
+      </c>
+      <c r="AN19">
+        <v>3.383088264125377e-08</v>
+      </c>
+      <c r="AO19">
+        <v>3.179110793446309e-08</v>
+      </c>
+      <c r="AP19">
+        <v>6.062691975335281e-08</v>
+      </c>
+      <c r="AR19">
+        <v>3.190631128572455e-08</v>
+      </c>
+      <c r="AS19">
+        <v>3.298100652813249e-08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>0.5828338602657545</v>
+      </c>
+      <c r="E20">
+        <v>0.583245846249894</v>
+      </c>
+      <c r="F20">
+        <v>0.5930641627396059</v>
+      </c>
+      <c r="G20">
+        <v>0.593518362995178</v>
+      </c>
+      <c r="H20">
+        <v>-0.5586756851345415</v>
+      </c>
+      <c r="I20">
+        <v>-0.5118822193060064</v>
+      </c>
+      <c r="L20">
+        <v>-0.4764370244785369</v>
+      </c>
+      <c r="M20">
+        <v>-0.4865136136495539</v>
+      </c>
+      <c r="N20">
+        <v>-0.4860825459849088</v>
+      </c>
+      <c r="O20">
+        <v>-0.5329321548975554</v>
+      </c>
+      <c r="P20">
+        <v>-0.462778877901377</v>
+      </c>
+      <c r="Q20">
+        <v>0.483583229282865</v>
+      </c>
+      <c r="R20">
+        <v>0.5532119580891709</v>
+      </c>
+      <c r="T20">
+        <v>-0.5140871781019596</v>
+      </c>
+      <c r="U20">
+        <v>-0.5442771559977987</v>
+      </c>
+      <c r="V20">
+        <v>-0.3899716603671337</v>
+      </c>
+      <c r="Z20">
+        <v>-0.581579929976066</v>
+      </c>
+      <c r="AA20">
+        <v>-0.4709261169502531</v>
+      </c>
+      <c r="AB20">
+        <v>-0.5035857079160205</v>
+      </c>
+      <c r="AC20">
+        <v>0.4155262085008991</v>
+      </c>
+      <c r="AD20">
+        <v>-0.5529553576113299</v>
+      </c>
+      <c r="AE20">
+        <v>-0.4570737722734312</v>
+      </c>
+      <c r="AF20">
+        <v>-0.5465191127142437</v>
+      </c>
+      <c r="AG20">
+        <v>-0.5489900641756774</v>
+      </c>
+      <c r="AH20">
+        <v>0.1561838604416059</v>
+      </c>
+      <c r="AI20">
+        <v>-0.3478403645399089</v>
+      </c>
+      <c r="AJ20">
+        <v>0.3284203868434137</v>
+      </c>
+      <c r="AK20">
+        <v>0.5527280973855788</v>
+      </c>
+      <c r="AL20">
+        <v>-0.5332996490854679</v>
+      </c>
+      <c r="AM20">
+        <v>-0.5425005756224889</v>
+      </c>
+      <c r="AN20">
+        <v>-0.5420681465615844</v>
+      </c>
+      <c r="AO20">
+        <v>-0.5422847895106151</v>
+      </c>
+      <c r="AP20">
+        <v>-0.5450804131287095</v>
+      </c>
+      <c r="AR20">
+        <v>-0.5397967875493095</v>
+      </c>
+      <c r="AS20">
+        <v>-0.539652040238918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>0.02871294675226934</v>
+      </c>
+      <c r="E21">
+        <v>0.02857321090502721</v>
+      </c>
+      <c r="F21">
+        <v>0.02539084686587386</v>
+      </c>
+      <c r="G21">
+        <v>0.02525036048631166</v>
+      </c>
+      <c r="H21">
+        <v>0.03783463347320352</v>
+      </c>
+      <c r="I21">
+        <v>0.0613202772165598</v>
+      </c>
+      <c r="L21">
+        <v>0.08501104852902866</v>
+      </c>
+      <c r="M21">
+        <v>0.07771378698149946</v>
+      </c>
+      <c r="N21">
+        <v>0.07801656497743881</v>
+      </c>
+      <c r="O21">
+        <v>0.04973496250719946</v>
+      </c>
+      <c r="P21">
+        <v>0.09565081836770284</v>
+      </c>
+      <c r="Q21">
+        <v>0.07978848966397728</v>
+      </c>
+      <c r="R21">
+        <v>0.04016359101811068</v>
+      </c>
+      <c r="T21">
+        <v>0.06002374988664996</v>
+      </c>
+      <c r="U21">
+        <v>0.04419670049662785</v>
+      </c>
+      <c r="V21">
+        <v>0.1680750203171421</v>
+      </c>
+      <c r="Z21">
+        <v>0.0291413874353435</v>
+      </c>
+      <c r="AA21">
+        <v>0.08919885741000055</v>
+      </c>
+      <c r="AB21">
+        <v>0.06637900820040338</v>
+      </c>
+      <c r="AC21">
+        <v>0.1395173181606131</v>
+      </c>
+      <c r="AD21">
+        <v>0.04027549774689939</v>
+      </c>
+      <c r="AE21">
+        <v>0.1003571796621284</v>
+      </c>
+      <c r="AF21">
+        <v>0.04315802097248599</v>
+      </c>
+      <c r="AG21">
+        <v>0.04203408216981302</v>
+      </c>
+      <c r="AH21">
+        <v>0.5938999302913004</v>
+      </c>
+      <c r="AI21">
+        <v>0.222970052522418</v>
+      </c>
+      <c r="AJ21">
+        <v>0.2516183561909168</v>
+      </c>
+      <c r="AK21">
+        <v>0.0403747999878327</v>
+      </c>
+      <c r="AL21">
+        <v>0.04954803889238178</v>
+      </c>
+      <c r="AM21">
+        <v>0.04503266788688407</v>
+      </c>
+      <c r="AN21">
+        <v>0.04523788297314601</v>
+      </c>
+      <c r="AO21">
+        <v>0.04513498690651249</v>
+      </c>
+      <c r="AP21">
+        <v>0.04382247911797604</v>
+      </c>
+      <c r="AR21">
+        <v>0.04632702125718839</v>
+      </c>
+      <c r="AS21">
+        <v>0.04639707130930715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22">
+        <v>-0.8709557207172509</v>
+      </c>
+      <c r="E22">
+        <v>-0.8718639757060692</v>
+      </c>
+      <c r="F22">
+        <v>-0.945360927427305</v>
+      </c>
+      <c r="G22">
+        <v>-0.9471700516868442</v>
+      </c>
+      <c r="H22">
+        <v>0.9645286139299852</v>
+      </c>
+      <c r="I22">
+        <v>0.8804973965256794</v>
+      </c>
+      <c r="M22">
+        <v>0.9605717717004673</v>
+      </c>
+      <c r="N22">
+        <v>0.9738843758652582</v>
+      </c>
+      <c r="O22">
+        <v>0.9480959705118492</v>
+      </c>
+      <c r="P22">
+        <v>0.8698459095987217</v>
+      </c>
+      <c r="Q22">
+        <v>-0.9279684275612535</v>
+      </c>
+      <c r="R22">
+        <v>-0.9558594293235968</v>
+      </c>
+      <c r="T22">
+        <v>0.9191711181816323</v>
+      </c>
+      <c r="U22">
+        <v>0.6654192200647475</v>
+      </c>
+      <c r="V22">
+        <v>0.4411041824774085</v>
+      </c>
+      <c r="Z22">
+        <v>0.88658693228932</v>
+      </c>
+      <c r="AA22">
+        <v>0.9470679873716189</v>
+      </c>
+      <c r="AB22">
+        <v>0.8623013165031912</v>
+      </c>
+      <c r="AC22">
+        <v>-0.870881049833323</v>
+      </c>
+      <c r="AD22">
+        <v>0.9428878771160474</v>
+      </c>
+      <c r="AE22">
+        <v>0.9309730218456786</v>
+      </c>
+      <c r="AF22">
+        <v>0.9468345813902779</v>
+      </c>
+      <c r="AG22">
+        <v>0.9427636088932604</v>
+      </c>
+      <c r="AH22">
+        <v>-0.2604245588791053</v>
+      </c>
+      <c r="AI22">
+        <v>0.2367301558693532</v>
+      </c>
+      <c r="AJ22">
+        <v>-0.3225873848137322</v>
+      </c>
+      <c r="AK22">
+        <v>-0.9539377737934283</v>
+      </c>
+      <c r="AL22">
+        <v>0.9372627022956284</v>
+      </c>
+      <c r="AM22">
+        <v>0.9420720160476804</v>
+      </c>
+      <c r="AN22">
+        <v>0.9408549668693835</v>
+      </c>
+      <c r="AO22">
+        <v>0.9414628527688547</v>
+      </c>
+      <c r="AP22">
+        <v>0.9360852296161963</v>
+      </c>
+      <c r="AR22">
+        <v>0.9405669188410503</v>
+      </c>
+      <c r="AS22">
+        <v>0.9402460114344779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>5.019919080493346e-05</v>
+      </c>
+      <c r="E23">
+        <v>4.821492797155693e-05</v>
+      </c>
+      <c r="F23">
+        <v>3.412797565595461e-07</v>
+      </c>
+      <c r="G23">
+        <v>2.799571439429229e-07</v>
+      </c>
+      <c r="H23">
+        <v>2.663902427240163e-08</v>
+      </c>
+      <c r="I23">
+        <v>3.234897760781712e-05</v>
+      </c>
+      <c r="M23">
+        <v>4.981449142762302e-08</v>
+      </c>
+      <c r="N23">
+        <v>4.32977198902984e-09</v>
+      </c>
+      <c r="O23">
+        <v>2.522880179144235e-07</v>
+      </c>
+      <c r="P23">
+        <v>5.271367653347573e-05</v>
+      </c>
+      <c r="Q23">
+        <v>1.724369730128624e-06</v>
+      </c>
+      <c r="R23">
+        <v>9.706916933622259e-08</v>
+      </c>
+      <c r="T23">
+        <v>3.376393504653398e-06</v>
+      </c>
+      <c r="U23">
+        <v>0.009397636760844425</v>
+      </c>
+      <c r="V23">
+        <v>0.1143765534833985</v>
+      </c>
+      <c r="Z23">
+        <v>2.396138346163828e-05</v>
+      </c>
+      <c r="AA23">
+        <v>2.831547756547328e-07</v>
+      </c>
+      <c r="AB23">
+        <v>7.266865012134844e-05</v>
+      </c>
+      <c r="AC23">
+        <v>5.036524154816398e-05</v>
+      </c>
+      <c r="AD23">
+        <v>4.426978811234191e-07</v>
+      </c>
+      <c r="AE23">
+        <v>1.344255184284235e-06</v>
+      </c>
+      <c r="AF23">
+        <v>2.905808890566659e-07</v>
+      </c>
+      <c r="AG23">
+        <v>4.483867619522329e-07</v>
+      </c>
+      <c r="AH23">
+        <v>0.3685302813375053</v>
+      </c>
+      <c r="AI23">
+        <v>0.4151518060566454</v>
+      </c>
+      <c r="AJ23">
+        <v>0.2606379571784681</v>
+      </c>
+      <c r="AK23">
+        <v>1.248253129493856e-07</v>
+      </c>
+      <c r="AL23">
+        <v>7.68301571361156e-07</v>
+      </c>
+      <c r="AM23">
+        <v>4.811620260936067e-07</v>
+      </c>
+      <c r="AN23">
+        <v>5.436399210507103e-07</v>
+      </c>
+      <c r="AO23">
+        <v>5.116465447965201e-07</v>
+      </c>
+      <c r="AP23">
+        <v>8.567628368013185e-07</v>
+      </c>
+      <c r="AR23">
+        <v>5.593668189470263e-07</v>
+      </c>
+      <c r="AS23">
+        <v>5.773282943505781e-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24">
+        <v>-0.9375139931479114</v>
+      </c>
+      <c r="E24">
+        <v>-0.9381361176551946</v>
+      </c>
+      <c r="F24">
+        <v>-0.9638156197232667</v>
+      </c>
+      <c r="G24">
+        <v>-0.9639964075500358</v>
+      </c>
+      <c r="H24">
+        <v>0.9485785776050069</v>
+      </c>
+      <c r="I24">
+        <v>0.9668812950015511</v>
+      </c>
+      <c r="P24">
+        <v>0.952735062731515</v>
+      </c>
+      <c r="Q24">
+        <v>-0.836850109171266</v>
+      </c>
+      <c r="R24">
+        <v>-0.9768248277863374</v>
+      </c>
+      <c r="T24">
+        <v>0.9807480432891172</v>
+      </c>
+      <c r="U24">
+        <v>0.5776839554518182</v>
+      </c>
+      <c r="V24">
+        <v>0.3381254102288417</v>
+      </c>
+      <c r="Z24">
+        <v>0.9060100374136153</v>
+      </c>
+      <c r="AA24">
+        <v>0.9526961682510587</v>
+      </c>
+      <c r="AB24">
+        <v>0.7896241614006626</v>
+      </c>
+      <c r="AC24">
+        <v>-0.9353487532187917</v>
+      </c>
+      <c r="AD24">
+        <v>0.9201844730514868</v>
+      </c>
+      <c r="AE24">
+        <v>0.9180052245152851</v>
+      </c>
+      <c r="AF24">
+        <v>0.9787550194588647</v>
+      </c>
+      <c r="AG24">
+        <v>0.9807546606033775</v>
+      </c>
+      <c r="AH24">
+        <v>-0.2924450279719398</v>
+      </c>
+      <c r="AI24">
+        <v>0.3158064349208802</v>
+      </c>
+      <c r="AJ24">
+        <v>-0.39901806371981</v>
+      </c>
+      <c r="AK24">
+        <v>-0.97812092935033</v>
+      </c>
+      <c r="AL24">
+        <v>0.9853674449512612</v>
+      </c>
+      <c r="AM24">
+        <v>0.9828448798517396</v>
+      </c>
+      <c r="AN24">
+        <v>0.982815075036709</v>
+      </c>
+      <c r="AO24">
+        <v>0.9828329978451108</v>
+      </c>
+      <c r="AP24">
+        <v>0.9806397698189014</v>
+      </c>
+      <c r="AR24">
+        <v>0.9838573201993949</v>
+      </c>
+      <c r="AS24">
+        <v>0.9838589387231413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25">
+        <v>7.504352741810283e-07</v>
+      </c>
+      <c r="E25">
+        <v>7.076736873561955e-07</v>
+      </c>
+      <c r="F25">
+        <v>2.997113594066791e-08</v>
+      </c>
+      <c r="G25">
+        <v>2.909524735153401e-08</v>
+      </c>
+      <c r="H25">
+        <v>2.387883289114471e-07</v>
+      </c>
+      <c r="I25">
+        <v>1.773816795630525e-08</v>
+      </c>
+      <c r="P25">
+        <v>1.453207088859869e-07</v>
+      </c>
+      <c r="Q25">
+        <v>0.0001897270833619531</v>
+      </c>
+      <c r="R25">
+        <v>2.12796060825184e-09</v>
+      </c>
+      <c r="T25">
+        <v>7.052721548444355e-10</v>
+      </c>
+      <c r="U25">
+        <v>0.0305029890526981</v>
+      </c>
+      <c r="V25">
+        <v>0.237036068958177</v>
+      </c>
+      <c r="Z25">
+        <v>8.107015480852938e-06</v>
+      </c>
+      <c r="AA25">
+        <v>1.46027295119534e-07</v>
+      </c>
+      <c r="AB25">
+        <v>0.0007819770403734098</v>
+      </c>
+      <c r="AC25">
+        <v>9.162448962224899e-07</v>
+      </c>
+      <c r="AD25">
+        <v>3.137267775596565e-06</v>
+      </c>
+      <c r="AE25">
+        <v>3.669864411587556e-06</v>
+      </c>
+      <c r="AF25">
+        <v>1.268165337328859e-09</v>
+      </c>
+      <c r="AG25">
+        <v>7.03828956455343e-10</v>
+      </c>
+      <c r="AH25">
+        <v>0.3102885086443219</v>
+      </c>
+      <c r="AI25">
+        <v>0.2713639787572934</v>
+      </c>
+      <c r="AJ25">
+        <v>0.1575638446635789</v>
+      </c>
+      <c r="AK25">
+        <v>1.510831173495457e-09</v>
+      </c>
+      <c r="AL25">
+        <v>1.373270898913845e-10</v>
+      </c>
+      <c r="AM25">
+        <v>3.546790088265497e-10</v>
+      </c>
+      <c r="AN25">
+        <v>3.58369315652115e-10</v>
+      </c>
+      <c r="AO25">
+        <v>3.56146383836474e-10</v>
+      </c>
+      <c r="AP25">
+        <v>7.292375878143816e-10</v>
+      </c>
+      <c r="AR25">
+        <v>2.467601935123016e-10</v>
+      </c>
+      <c r="AS25">
+        <v>2.466126450441237e-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>-0.9207596745561314</v>
+      </c>
+      <c r="E26">
+        <v>-0.9214766078320777</v>
+      </c>
+      <c r="F26">
+        <v>-0.9628255173727891</v>
+      </c>
+      <c r="G26">
+        <v>-0.963524855538555</v>
+      </c>
+      <c r="H26">
+        <v>0.959664987323313</v>
+      </c>
+      <c r="I26">
+        <v>0.948838217446933</v>
+      </c>
+      <c r="M26">
+        <v>0.9975276522104241</v>
+      </c>
+      <c r="O26">
+        <v>0.9750060377140478</v>
+      </c>
+      <c r="P26">
+        <v>0.9423194239146849</v>
+      </c>
+      <c r="Q26">
+        <v>-0.8685981808025642</v>
+      </c>
+      <c r="R26">
+        <v>-0.9777372255690323</v>
+      </c>
+      <c r="T26">
+        <v>0.9684480354713569</v>
+      </c>
+      <c r="U26">
+        <v>0.6057958408201183</v>
+      </c>
+      <c r="V26">
+        <v>0.3697878046162711</v>
+      </c>
+      <c r="Z26">
+        <v>0.9083399402098158</v>
+      </c>
+      <c r="AA26">
+        <v>0.9602072306450828</v>
+      </c>
+      <c r="AB26">
+        <v>0.8130957616031838</v>
+      </c>
+      <c r="AC26">
+        <v>-0.9233139874971193</v>
+      </c>
+      <c r="AD26">
+        <v>0.9316084876620302</v>
+      </c>
+      <c r="AE26">
+        <v>0.9286656266966594</v>
+      </c>
+      <c r="AF26">
+        <v>0.9758338911368876</v>
+      </c>
+      <c r="AG26">
+        <v>0.9762682993600661</v>
+      </c>
+      <c r="AH26">
+        <v>-0.2996299951460456</v>
+      </c>
+      <c r="AI26">
+        <v>0.2885190678896291</v>
+      </c>
+      <c r="AJ26">
+        <v>-0.3931281972359096</v>
+      </c>
+      <c r="AK26">
+        <v>-0.9781113786437396</v>
+      </c>
+      <c r="AL26">
+        <v>0.9778880482457137</v>
+      </c>
+      <c r="AM26">
+        <v>0.9778135449547305</v>
+      </c>
+      <c r="AN26">
+        <v>0.9774420720112422</v>
+      </c>
+      <c r="AO26">
+        <v>0.9776297745108383</v>
+      </c>
+      <c r="AP26">
+        <v>0.9744813231690642</v>
+      </c>
+      <c r="AR26">
+        <v>0.9779931273573156</v>
+      </c>
+      <c r="AS26">
+        <v>0.977909155518308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27">
+        <v>3.007857560917012e-06</v>
+      </c>
+      <c r="E27">
+        <v>2.852742156592837e-06</v>
+      </c>
+      <c r="F27">
+        <v>3.516503899145043e-08</v>
+      </c>
+      <c r="G27">
+        <v>3.142562973437491e-08</v>
+      </c>
+      <c r="H27">
+        <v>5.698335659058187e-08</v>
+      </c>
+      <c r="I27">
+        <v>2.317763775182769e-07</v>
+      </c>
+      <c r="M27">
+        <v>3.279800425053643e-15</v>
+      </c>
+      <c r="O27">
+        <v>3.335244336018918e-09</v>
+      </c>
+      <c r="P27">
+        <v>4.692172541730775e-07</v>
+      </c>
+      <c r="Q27">
+        <v>5.566229097177509e-05</v>
+      </c>
+      <c r="R27">
+        <v>1.675553205853439e-09</v>
+      </c>
+      <c r="T27">
+        <v>1.330772742455274e-08</v>
+      </c>
+      <c r="U27">
+        <v>0.02166901465951043</v>
+      </c>
+      <c r="V27">
+        <v>0.1931426506165992</v>
+      </c>
+      <c r="Z27">
+        <v>7.009755348987654e-06</v>
+      </c>
+      <c r="AA27">
+        <v>5.260081937166578e-08</v>
+      </c>
+      <c r="AB27">
+        <v>0.0004060714880460547</v>
+      </c>
+      <c r="AC27">
+        <v>2.485012601808917e-06</v>
+      </c>
+      <c r="AD27">
+        <v>1.273472357616857e-06</v>
+      </c>
+      <c r="AE27">
+        <v>1.629122263773875e-06</v>
+      </c>
+      <c r="AF27">
+        <v>2.729828023798316e-09</v>
+      </c>
+      <c r="AG27">
+        <v>2.450621272930999e-09</v>
+      </c>
+      <c r="AH27">
+        <v>0.2979928687912321</v>
+      </c>
+      <c r="AI27">
+        <v>0.3171278633392928</v>
+      </c>
+      <c r="AJ27">
+        <v>0.164356897003577</v>
+      </c>
+      <c r="AK27">
+        <v>1.51476129554227e-09</v>
+      </c>
+      <c r="AL27">
+        <v>1.609113093282163e-09</v>
+      </c>
+      <c r="AM27">
+        <v>1.641654093410282e-09</v>
+      </c>
+      <c r="AN27">
+        <v>1.812177052851375e-09</v>
+      </c>
+      <c r="AO27">
+        <v>1.724264142856964e-09</v>
+      </c>
+      <c r="AP27">
+        <v>3.773746331520388e-09</v>
+      </c>
+      <c r="AR27">
+        <v>1.564129562843371e-09</v>
+      </c>
+      <c r="AS27">
+        <v>1.599992048982561e-09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>-0.9340192883576605</v>
+      </c>
+      <c r="E28">
+        <v>-0.9347241201207576</v>
+      </c>
+      <c r="F28">
+        <v>-0.9857661457107402</v>
+      </c>
+      <c r="G28">
+        <v>-0.9860925075582956</v>
+      </c>
+      <c r="H28">
+        <v>0.9697927131140879</v>
+      </c>
+      <c r="I28">
+        <v>0.9612980677707809</v>
+      </c>
+      <c r="M28">
+        <v>0.974982570396288</v>
+      </c>
+      <c r="P28">
+        <v>0.9307471903641173</v>
+      </c>
+      <c r="Q28">
+        <v>-0.8675392701257878</v>
+      </c>
+      <c r="R28">
+        <v>-0.9954934790854141</v>
+      </c>
+      <c r="T28">
+        <v>0.9728809484125015</v>
+      </c>
+      <c r="U28">
+        <v>0.6959439346595572</v>
+      </c>
+      <c r="V28">
+        <v>0.4865532448314566</v>
+      </c>
+      <c r="Z28">
+        <v>0.9719628993859967</v>
+      </c>
+      <c r="AA28">
+        <v>0.9876412160643201</v>
+      </c>
+      <c r="AB28">
+        <v>0.8706322550816247</v>
+      </c>
+      <c r="AC28">
+        <v>-0.8882414468941947</v>
+      </c>
+      <c r="AD28">
+        <v>0.9712536565387754</v>
+      </c>
+      <c r="AE28">
+        <v>0.968132681467834</v>
+      </c>
+      <c r="AF28">
+        <v>0.994927367190572</v>
+      </c>
+      <c r="AG28">
+        <v>0.9938926018966258</v>
+      </c>
+      <c r="AH28">
+        <v>-0.4254002731719145</v>
+      </c>
+      <c r="AI28">
+        <v>0.2881083935497</v>
+      </c>
+      <c r="AJ28">
+        <v>-0.5278196147360804</v>
+      </c>
+      <c r="AK28">
+        <v>-0.9959534590095226</v>
+      </c>
+      <c r="AL28">
+        <v>0.986965695029639</v>
+      </c>
+      <c r="AM28">
+        <v>0.9932374142713035</v>
+      </c>
+      <c r="AN28">
+        <v>0.9929302092774184</v>
+      </c>
+      <c r="AO28">
+        <v>0.9930860833205598</v>
+      </c>
+      <c r="AP28">
+        <v>0.9916391600515273</v>
+      </c>
+      <c r="AR28">
+        <v>0.991446030187471</v>
+      </c>
+      <c r="AS28">
+        <v>0.9913771334704562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29">
+        <v>1.032244098822613e-06</v>
+      </c>
+      <c r="E29">
+        <v>9.693264806985266e-07</v>
+      </c>
+      <c r="F29">
+        <v>1.164510660891796e-10</v>
+      </c>
+      <c r="G29">
+        <v>1.013927213764121e-10</v>
+      </c>
+      <c r="H29">
+        <v>1.027738268984011e-08</v>
+      </c>
+      <c r="I29">
+        <v>4.462666574674449e-08</v>
+      </c>
+      <c r="M29">
+        <v>3.353907316406758e-09</v>
+      </c>
+      <c r="P29">
+        <v>1.370177802578638e-06</v>
+      </c>
+      <c r="Q29">
+        <v>5.826889432147932e-05</v>
+      </c>
+      <c r="R29">
+        <v>1.197685297928403e-13</v>
+      </c>
+      <c r="T29">
+        <v>5.417087850344045e-09</v>
+      </c>
+      <c r="U29">
+        <v>0.005703243221294891</v>
+      </c>
+      <c r="V29">
+        <v>0.07768599211674682</v>
+      </c>
+      <c r="Z29">
+        <v>6.601669638879878e-09</v>
+      </c>
+      <c r="AA29">
+        <v>5.009760543491011e-11</v>
+      </c>
+      <c r="AB29">
+        <v>5.092173887452199e-05</v>
+      </c>
+      <c r="AC29">
+        <v>2.202056452371478e-05</v>
+      </c>
+      <c r="AD29">
+        <v>7.657435917010114e-09</v>
+      </c>
+      <c r="AE29">
+        <v>1.411631761288702e-08</v>
+      </c>
+      <c r="AF29">
+        <v>2.433139990106471e-13</v>
+      </c>
+      <c r="AG29">
+        <v>7.395010828627557e-13</v>
+      </c>
+      <c r="AH29">
+        <v>0.1294117773446339</v>
+      </c>
+      <c r="AI29">
+        <v>0.3178482106517447</v>
+      </c>
+      <c r="AJ29">
+        <v>0.05238887466590597</v>
+      </c>
+      <c r="AK29">
+        <v>6.283864748227098e-14</v>
+      </c>
+      <c r="AL29">
+        <v>6.884271488717569e-11</v>
+      </c>
+      <c r="AM29">
+        <v>1.361027355412447e-12</v>
+      </c>
+      <c r="AN29">
+        <v>1.775590562636875e-12</v>
+      </c>
+      <c r="AO29">
+        <v>1.55379524732282e-12</v>
+      </c>
+      <c r="AP29">
+        <v>4.843929305269838e-12</v>
+      </c>
+      <c r="AR29">
+        <v>5.552956679594766e-12</v>
+      </c>
+      <c r="AS29">
+        <v>5.825908433897606e-12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30">
+        <v>-0.9252846303902792</v>
+      </c>
+      <c r="E30">
+        <v>-0.9255903207998263</v>
+      </c>
+      <c r="F30">
+        <v>-0.9111614619067389</v>
+      </c>
+      <c r="G30">
+        <v>-0.9096649324470385</v>
+      </c>
+      <c r="H30">
+        <v>0.8690687716444867</v>
+      </c>
+      <c r="I30">
+        <v>0.9463682181271619</v>
+      </c>
+      <c r="R30">
+        <v>-0.920912843711864</v>
+      </c>
+      <c r="T30">
+        <v>0.9390682399057841</v>
+      </c>
+      <c r="Z30">
+        <v>0.8693089504412275</v>
+      </c>
+      <c r="AA30">
+        <v>0.9071758733309734</v>
+      </c>
+      <c r="AE30">
+        <v>0.8540832000523938</v>
+      </c>
+      <c r="AH30">
+        <v>-0.394629517574511</v>
+      </c>
+      <c r="AI30">
+        <v>0.2358465975521945</v>
+      </c>
+      <c r="AJ30">
+        <v>-0.4733839380871648</v>
+      </c>
+      <c r="AK30">
+        <v>-0.9239517518132169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31">
+        <v>2.134918328344541e-06</v>
+      </c>
+      <c r="E31">
+        <v>2.084448630549028e-06</v>
+      </c>
+      <c r="F31">
+        <v>5.847258249207068e-06</v>
+      </c>
+      <c r="G31">
+        <v>6.442268766708497e-06</v>
+      </c>
+      <c r="H31">
+        <v>5.453481142118573e-05</v>
+      </c>
+      <c r="I31">
+        <v>3.059015624650519e-07</v>
+      </c>
+      <c r="R31">
+        <v>2.974148312162494e-06</v>
+      </c>
+      <c r="T31">
+        <v>6.473828501579841e-07</v>
+      </c>
+      <c r="Z31">
+        <v>5.396658882087218e-05</v>
+      </c>
+      <c r="AA31">
+        <v>7.541599103230543e-06</v>
+      </c>
+      <c r="AE31">
+        <v>0.0001009961428018432</v>
+      </c>
+      <c r="AH31">
+        <v>0.1626074967566677</v>
+      </c>
+      <c r="AI31">
+        <v>0.4169464336558973</v>
+      </c>
+      <c r="AJ31">
+        <v>0.08731371117395254</v>
+      </c>
+      <c r="AK31">
+        <v>2.366893655382114e-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>0.703753974909299</v>
+      </c>
+      <c r="E32">
+        <v>0.7052287600962902</v>
+      </c>
+      <c r="F32">
+        <v>0.8669304201944017</v>
+      </c>
+      <c r="G32">
+        <v>0.8722703769106182</v>
+      </c>
+      <c r="H32">
+        <v>-0.9465454744412118</v>
+      </c>
+      <c r="I32">
+        <v>-0.7218356174783196</v>
+      </c>
+      <c r="P32">
+        <v>-0.7225441095002467</v>
+      </c>
+      <c r="R32">
+        <v>0.8866349503831984</v>
+      </c>
+      <c r="T32">
+        <v>-0.7852218497872454</v>
+      </c>
+      <c r="Z32">
+        <v>-0.8477179023863806</v>
+      </c>
+      <c r="AA32">
+        <v>-0.8989721536976072</v>
+      </c>
+      <c r="AE32">
+        <v>-0.9151099491727258</v>
+      </c>
+      <c r="AH32">
+        <v>0.279316491747959</v>
+      </c>
+      <c r="AI32">
+        <v>-0.2160791355505514</v>
+      </c>
+      <c r="AJ32">
+        <v>0.3378011739596021</v>
+      </c>
+      <c r="AK32">
+        <v>0.8802019863073929</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45">
+      <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>0.004972033451297824</v>
+      </c>
+      <c r="E33">
+        <v>0.004842598279271263</v>
+      </c>
+      <c r="F33">
+        <v>5.981210448730127e-05</v>
+      </c>
+      <c r="G33">
+        <v>4.734802923007111e-05</v>
+      </c>
+      <c r="H33">
+        <v>3.000016941649589e-07</v>
+      </c>
+      <c r="I33">
+        <v>0.003559197063651694</v>
+      </c>
+      <c r="P33">
+        <v>0.003511115865408599</v>
+      </c>
+      <c r="R33">
+        <v>2.390315092155034e-05</v>
+      </c>
+      <c r="T33">
+        <v>0.0008763838508489474</v>
+      </c>
+      <c r="Z33">
+        <v>0.0001286107175037058</v>
+      </c>
+      <c r="AA33">
+        <v>1.230862734356272e-05</v>
+      </c>
+      <c r="AE33">
+        <v>4.490434637053236e-06</v>
+      </c>
+      <c r="AH33">
+        <v>0.3334921933936014</v>
+      </c>
+      <c r="AI33">
+        <v>0.458117991826746</v>
+      </c>
+      <c r="AJ33">
+        <v>0.2375146838505868</v>
+      </c>
+      <c r="AK33">
+        <v>3.280995845088075e-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45">
+      <c r="A34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34">
+        <v>-0.8734611637301127</v>
+      </c>
+      <c r="C34">
+        <v>-0.8734993309384956</v>
+      </c>
+      <c r="D34">
+        <v>-0.9557352611864337</v>
+      </c>
+      <c r="E34">
+        <v>-0.9562536286417316</v>
+      </c>
+      <c r="F34">
+        <v>-0.9674922531942126</v>
+      </c>
+      <c r="G34">
+        <v>-0.9670471017418375</v>
+      </c>
+      <c r="H34">
+        <v>0.9289625413105792</v>
+      </c>
+      <c r="I34">
+        <v>0.9929254764958378</v>
+      </c>
+      <c r="J34">
+        <v>0.9507725105392053</v>
+      </c>
+      <c r="K34">
+        <v>-0.5087545986491101</v>
+      </c>
+      <c r="L34">
+        <v>0.9193068276225911</v>
+      </c>
+      <c r="M34">
+        <v>0.9818565792375691</v>
+      </c>
+      <c r="N34">
+        <v>0.9691253544076985</v>
+      </c>
+      <c r="O34">
+        <v>0.9697654229629274</v>
+      </c>
+      <c r="P34">
+        <v>0.9374097850894024</v>
+      </c>
+      <c r="Q34">
+        <v>-0.7773249935173745</v>
+      </c>
+      <c r="R34">
+        <v>-0.9738369952081489</v>
+      </c>
+      <c r="S34">
+        <v>0.9928048944111604</v>
+      </c>
+      <c r="T34">
+        <v>0.9993619526316204</v>
+      </c>
+      <c r="U34">
+        <v>0.5586436024263958</v>
+      </c>
+      <c r="V34">
+        <v>0.3183186873711027</v>
+      </c>
+      <c r="W34">
+        <v>0.7991178713869316</v>
+      </c>
+      <c r="X34">
+        <v>-0.7895541273578452</v>
+      </c>
+      <c r="Y34">
+        <v>0.9233028784021079</v>
+      </c>
+      <c r="Z34">
+        <v>0.9054335210747776</v>
+      </c>
+      <c r="AA34">
+        <v>0.9316960274868089</v>
+      </c>
+      <c r="AB34">
+        <v>0.7755150950974941</v>
+      </c>
+      <c r="AC34">
+        <v>-0.9431571605259654</v>
+      </c>
+      <c r="AD34">
+        <v>0.9098434856395812</v>
+      </c>
+      <c r="AE34">
+        <v>0.9032089763668697</v>
+      </c>
+      <c r="AF34">
+        <v>0.9837993066090507</v>
+      </c>
+      <c r="AG34">
+        <v>0.9876646299581628</v>
+      </c>
+      <c r="AH34">
+        <v>-0.2589580036485221</v>
+      </c>
+      <c r="AI34">
+        <v>0.4075149996413392</v>
+      </c>
+      <c r="AJ34">
+        <v>-0.4084780917264015</v>
+      </c>
+      <c r="AK34">
+        <v>-0.9765263000548605</v>
+      </c>
+      <c r="AL34">
+        <v>0.9952337492636176</v>
+      </c>
+      <c r="AM34">
+        <v>0.9893104306638008</v>
+      </c>
+      <c r="AN34">
+        <v>0.9898707058618847</v>
+      </c>
+      <c r="AO34">
+        <v>0.9895954324800321</v>
+      </c>
+      <c r="AP34">
+        <v>0.9905804471736493</v>
+      </c>
+      <c r="AQ34">
+        <v>-0.9336789450966596</v>
+      </c>
+      <c r="AR34">
+        <v>0.9915534364978171</v>
+      </c>
+      <c r="AS34">
+        <v>0.9916785725631141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35">
+        <v>4.488085660880208e-05</v>
+      </c>
+      <c r="C35">
+        <v>4.480354922846971e-05</v>
+      </c>
+      <c r="D35">
+        <v>9.86923511131578e-08</v>
+      </c>
+      <c r="E35">
+        <v>9.20617329820659e-08</v>
+      </c>
+      <c r="F35">
+        <v>1.588421957036326e-08</v>
+      </c>
+      <c r="G35">
+        <v>1.721815913488627e-08</v>
+      </c>
+      <c r="H35">
+        <v>1.589898180840709e-06</v>
+      </c>
+      <c r="I35">
+        <v>1.782716258251599e-12</v>
+      </c>
+      <c r="J35">
+        <v>1.847045168940981e-07</v>
+      </c>
+      <c r="K35">
+        <v>0.06319364547981897</v>
+      </c>
+      <c r="L35">
+        <v>3.343526609086011e-06</v>
+      </c>
+      <c r="M35">
+        <v>4.95292529165473e-10</v>
+      </c>
+      <c r="N35">
+        <v>1.170025963686691e-08</v>
+      </c>
+      <c r="O35">
+        <v>1.033260649782761e-08</v>
+      </c>
+      <c r="P35">
+        <v>7.578021802413724e-07</v>
+      </c>
+      <c r="Q35">
+        <v>0.001068446163528664</v>
+      </c>
+      <c r="R35">
+        <v>4.376669409044163e-09</v>
+      </c>
+      <c r="S35">
+        <v>1.972466152372748e-12</v>
+      </c>
+      <c r="T35">
+        <v>9.727823152433503e-19</v>
+      </c>
+      <c r="U35">
+        <v>0.03784801140419687</v>
+      </c>
+      <c r="V35">
+        <v>0.2673599882026514</v>
+      </c>
+      <c r="W35">
+        <v>0.000605993391184196</v>
+      </c>
+      <c r="X35">
+        <v>0.0007834122319966153</v>
+      </c>
+      <c r="Y35">
+        <v>2.487112289468065e-06</v>
+      </c>
+      <c r="Z35">
+        <v>8.399209388953898e-06</v>
+      </c>
+      <c r="AA35">
+        <v>1.263967073895234e-06</v>
+      </c>
+      <c r="AB35">
+        <v>0.001116869727772919</v>
+      </c>
+      <c r="AC35">
+        <v>4.30574723082675e-07</v>
+      </c>
+      <c r="AD35">
+        <v>6.368769281166506e-06</v>
+      </c>
+      <c r="AE35">
+        <v>9.608928375227129e-06</v>
+      </c>
+      <c r="AF35">
+        <v>2.52097529938708e-10</v>
+      </c>
+      <c r="AG35">
+        <v>4.95333292326407e-11</v>
+      </c>
+      <c r="AH35">
+        <v>0.3713304001204789</v>
+      </c>
+      <c r="AI35">
+        <v>0.1480934720247981</v>
+      </c>
+      <c r="AJ35">
+        <v>0.1470444361168461</v>
+      </c>
+      <c r="AK35">
+        <v>2.296331968986797e-09</v>
+      </c>
+      <c r="AL35">
+        <v>1.675380789763527e-13</v>
+      </c>
+      <c r="AM35">
+        <v>2.10515590663684e-11</v>
+      </c>
+      <c r="AN35">
+        <v>1.525884486917019e-11</v>
+      </c>
+      <c r="AO35">
+        <v>1.791156548035786e-11</v>
+      </c>
+      <c r="AP35">
+        <v>9.883057702888686e-12</v>
+      </c>
+      <c r="AQ35">
+        <v>1.063809431166135e-06</v>
+      </c>
+      <c r="AR35">
+        <v>5.14871206407007e-12</v>
+      </c>
+      <c r="AS35">
+        <v>4.708928749256487e-12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36">
+        <v>-0.891204793959716</v>
+      </c>
+      <c r="C36">
+        <v>-0.8912530633147053</v>
+      </c>
+      <c r="D36">
+        <v>-0.9451133724439161</v>
+      </c>
+      <c r="E36">
+        <v>-0.9458026223404178</v>
+      </c>
+      <c r="F36">
+        <v>-0.9766972734124511</v>
+      </c>
+      <c r="G36">
+        <v>-0.9772821859715404</v>
+      </c>
+      <c r="H36">
+        <v>0.9517605035133948</v>
+      </c>
+      <c r="I36">
+        <v>0.9853019348346416</v>
+      </c>
+      <c r="J36">
+        <v>0.948553482597022</v>
+      </c>
+      <c r="K36">
+        <v>-0.5294302852364315</v>
+      </c>
+      <c r="L36">
+        <v>0.9210980078168292</v>
+      </c>
+      <c r="M36">
+        <v>0.9743851483006799</v>
+      </c>
+      <c r="N36">
+        <v>0.9644955575867152</v>
+      </c>
+      <c r="O36">
+        <v>0.9800687793099176</v>
+      </c>
+      <c r="P36">
+        <v>0.9361167070076537</v>
+      </c>
+      <c r="Q36">
+        <v>-0.8118972085166695</v>
+      </c>
+      <c r="R36">
+        <v>-0.9860213166717271</v>
+      </c>
+      <c r="T36">
+        <v>0.9961704747906727</v>
+      </c>
+      <c r="U36">
+        <v>0.637871473217053</v>
+      </c>
+      <c r="V36">
+        <v>0.4122655233152952</v>
+      </c>
+      <c r="W36">
+        <v>0.8415396869600652</v>
+      </c>
+      <c r="X36">
+        <v>-0.7548723256029599</v>
+      </c>
+      <c r="Y36">
+        <v>0.9462321628110889</v>
+      </c>
+      <c r="Z36">
+        <v>0.9309638102936174</v>
+      </c>
+      <c r="AA36">
+        <v>0.9476576926884772</v>
+      </c>
+      <c r="AB36">
+        <v>0.8191970926717033</v>
+      </c>
+      <c r="AC36">
+        <v>-0.9382764553520446</v>
+      </c>
+      <c r="AD36">
+        <v>0.9360170128794931</v>
+      </c>
+      <c r="AE36">
+        <v>0.9272143720806461</v>
+      </c>
+      <c r="AF36">
+        <v>0.9925182617087788</v>
+      </c>
+      <c r="AG36">
+        <v>0.9945175710005046</v>
+      </c>
+      <c r="AH36">
+        <v>-0.295762099827474</v>
+      </c>
+      <c r="AI36">
+        <v>0.4271846023798127</v>
+      </c>
+      <c r="AJ36">
+        <v>-0.4544682301547528</v>
+      </c>
+      <c r="AK36">
+        <v>-0.9877850237352632</v>
+      </c>
+      <c r="AL36">
+        <v>0.9971245393067026</v>
+      </c>
+      <c r="AM36">
+        <v>0.9952788452033683</v>
+      </c>
+      <c r="AN36">
+        <v>0.9955366524071833</v>
+      </c>
+      <c r="AO36">
+        <v>0.9954117621305718</v>
+      </c>
+      <c r="AP36">
+        <v>0.9961422202956588</v>
+      </c>
+      <c r="AQ36">
+        <v>-0.9564565152981314</v>
+      </c>
+      <c r="AR36">
+        <v>0.9961955691750258</v>
+      </c>
+      <c r="AS36">
+        <v>0.9962358606730057</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37">
+        <v>1.886619140426633e-05</v>
+      </c>
+      <c r="C37">
+        <v>1.881805735825833e-05</v>
+      </c>
+      <c r="D37">
+        <v>3.504729163907041e-07</v>
+      </c>
+      <c r="E37">
+        <v>3.253720646160802e-07</v>
+      </c>
+      <c r="F37">
+        <v>2.198600908595651e-09</v>
+      </c>
+      <c r="G37">
+        <v>1.889968225615283e-09</v>
+      </c>
+      <c r="H37">
+        <v>1.639024104454137e-07</v>
+      </c>
+      <c r="I37">
+        <v>1.410376001807979e-10</v>
+      </c>
+      <c r="J37">
+        <v>2.394752495348177e-07</v>
+      </c>
+      <c r="K37">
+        <v>0.05154196123517762</v>
+      </c>
+      <c r="L37">
+        <v>2.93381339885399e-06</v>
+      </c>
+      <c r="M37">
+        <v>3.859085995072739e-09</v>
+      </c>
+      <c r="N37">
+        <v>2.678639942867809e-08</v>
+      </c>
+      <c r="O37">
+        <v>8.671092602730114e-10</v>
+      </c>
+      <c r="P37">
+        <v>8.54293368357636e-07</v>
+      </c>
+      <c r="Q37">
+        <v>0.000420780875831187</v>
+      </c>
+      <c r="R37">
+        <v>1.045309184371873e-10</v>
+      </c>
+      <c r="T37">
+        <v>4.516427423416917e-14</v>
+      </c>
+      <c r="U37">
+        <v>0.01411218487799262</v>
+      </c>
+      <c r="V37">
+        <v>0.142966886110956</v>
+      </c>
+      <c r="W37">
+        <v>0.0001609856970533358</v>
+      </c>
+      <c r="X37">
+        <v>0.001803438380958369</v>
+      </c>
+      <c r="Y37">
+        <v>3.104948517891104e-07</v>
+      </c>
+      <c r="Z37">
+        <v>1.345304584452633e-06</v>
+      </c>
+      <c r="AA37">
+        <v>2.650885539315198e-07</v>
+      </c>
+      <c r="AB37">
+        <v>0.0003374698917869663</v>
+      </c>
+      <c r="AC37">
+        <v>6.983112096210544e-07</v>
+      </c>
+      <c r="AD37">
+        <v>8.621348041181545e-07</v>
+      </c>
+      <c r="AE37">
+        <v>1.832502628943996e-06</v>
+      </c>
+      <c r="AF37">
+        <v>2.49191994014592e-12</v>
+      </c>
+      <c r="AG37">
+        <v>3.874560739807556e-13</v>
+      </c>
+      <c r="AH37">
+        <v>0.3045763832499971</v>
+      </c>
+      <c r="AI37">
+        <v>0.1276397738621574</v>
+      </c>
+      <c r="AJ37">
+        <v>0.1025589234750458</v>
+      </c>
+      <c r="AK37">
+        <v>4.671461510971856e-11</v>
+      </c>
+      <c r="AL37">
+        <v>8.110714299461549e-15</v>
+      </c>
+      <c r="AM37">
+        <v>1.582645716716863e-13</v>
+      </c>
+      <c r="AN37">
+        <v>1.130573705938521e-13</v>
+      </c>
+      <c r="AO37">
+        <v>1.333809292558092e-13</v>
+      </c>
+      <c r="AP37">
+        <v>4.719800571233408e-14</v>
+      </c>
+      <c r="AQ37">
+        <v>8.956908211083297e-08</v>
+      </c>
+      <c r="AR37">
+        <v>4.341971602824407e-14</v>
+      </c>
+      <c r="AS37">
+        <v>4.073620064057707e-14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45">
+      <c r="A38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38">
+        <v>0.9352028617366408</v>
+      </c>
+      <c r="I38">
+        <v>0.9926031243807955</v>
+      </c>
+      <c r="R38">
+        <v>-0.9776935427497875</v>
+      </c>
+      <c r="Z38">
+        <v>0.91168633822032</v>
+      </c>
+      <c r="AA38">
+        <v>0.9363430058938421</v>
+      </c>
+      <c r="AK38">
+        <v>-0.980184680577414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39">
+        <v>9.284227971346238e-07</v>
+      </c>
+      <c r="I39">
+        <v>2.327491547253045e-12</v>
+      </c>
+      <c r="R39">
+        <v>1.695216215780823e-09</v>
+      </c>
+      <c r="Z39">
+        <v>5.64959344908568e-06</v>
+      </c>
+      <c r="AA39">
+        <v>8.367120511761117e-07</v>
+      </c>
+      <c r="AK39">
+        <v>8.375015338390527e-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40">
+        <v>-0.5489626938989436</v>
+      </c>
+      <c r="E40">
+        <v>-0.5503666043297154</v>
+      </c>
+      <c r="F40">
+        <v>-0.7184381489589922</v>
+      </c>
+      <c r="G40">
+        <v>-0.7237795987297583</v>
+      </c>
+      <c r="H40">
+        <v>0.7712881840837599</v>
+      </c>
+      <c r="I40">
+        <v>0.5273288943582441</v>
+      </c>
+      <c r="P40">
+        <v>0.5161201090105998</v>
+      </c>
+      <c r="Q40">
+        <v>-0.8401938250335361</v>
+      </c>
+      <c r="R40">
+        <v>-0.7111138466547632</v>
+      </c>
+      <c r="T40">
+        <v>0.5790085449306073</v>
+      </c>
+      <c r="V40">
+        <v>0.9038836006986301</v>
+      </c>
+      <c r="Z40">
+        <v>0.7682872407194936</v>
+      </c>
+      <c r="AA40">
+        <v>0.73607069087524</v>
+      </c>
+      <c r="AB40">
+        <v>0.8967252972702994</v>
+      </c>
+      <c r="AC40">
+        <v>-0.4738745901070471</v>
+      </c>
+      <c r="AD40">
+        <v>0.8197557247872376</v>
+      </c>
+      <c r="AE40">
+        <v>0.7889582326888405</v>
+      </c>
+      <c r="AF40">
+        <v>0.6857274529792241</v>
+      </c>
+      <c r="AG40">
+        <v>0.6693835520802028</v>
+      </c>
+      <c r="AH40">
+        <v>-0.4185774946074608</v>
+      </c>
+      <c r="AI40">
+        <v>0.198406724505002</v>
+      </c>
+      <c r="AJ40">
+        <v>-0.4797769187471576</v>
+      </c>
+      <c r="AK40">
+        <v>-0.704132681880974</v>
+      </c>
+      <c r="AL40">
+        <v>0.6274735861187044</v>
+      </c>
+      <c r="AM40">
+        <v>0.6600506156389881</v>
+      </c>
+      <c r="AN40">
+        <v>0.6572798102315396</v>
+      </c>
+      <c r="AO40">
+        <v>0.6586593352308004</v>
+      </c>
+      <c r="AP40">
+        <v>0.6520351571283056</v>
+      </c>
+      <c r="AR40">
+        <v>0.6494486242081012</v>
+      </c>
+      <c r="AS40">
+        <v>0.6486873884587673</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41">
+        <v>0.04204641301570679</v>
+      </c>
+      <c r="E41">
+        <v>0.04141733753339079</v>
+      </c>
+      <c r="F41">
+        <v>0.003797004338415576</v>
+      </c>
+      <c r="G41">
+        <v>0.003428493665988606</v>
+      </c>
+      <c r="H41">
+        <v>0.00123679852266747</v>
+      </c>
+      <c r="I41">
+        <v>0.05264889476807999</v>
+      </c>
+      <c r="P41">
+        <v>0.05884594289406749</v>
+      </c>
+      <c r="Q41">
+        <v>0.0001688458431371804</v>
+      </c>
+      <c r="R41">
+        <v>0.004352106407498707</v>
+      </c>
+      <c r="T41">
+        <v>0.03003485820501801</v>
+      </c>
+      <c r="V41">
+        <v>9.22787772626904e-06</v>
+      </c>
+      <c r="Z41">
+        <v>0.0013280084239226</v>
+      </c>
+      <c r="AA41">
+        <v>0.002686985267536606</v>
+      </c>
+      <c r="AB41">
+        <v>1.397490556210107e-05</v>
+      </c>
+      <c r="AC41">
+        <v>0.08694074726984721</v>
+      </c>
+      <c r="AD41">
+        <v>0.0003316886148096982</v>
+      </c>
+      <c r="AE41">
+        <v>0.0007957093041178202</v>
+      </c>
+      <c r="AF41">
+        <v>0.006783373407144764</v>
+      </c>
+      <c r="AG41">
+        <v>0.008834655322880488</v>
+      </c>
+      <c r="AH41">
+        <v>0.1363400348443994</v>
+      </c>
+      <c r="AI41">
+        <v>0.4965263016837588</v>
+      </c>
+      <c r="AJ41">
+        <v>0.08254122241440651</v>
+      </c>
+      <c r="AK41">
+        <v>0.004938541001427272</v>
+      </c>
+      <c r="AL41">
+        <v>0.01629663617739451</v>
+      </c>
+      <c r="AM41">
+        <v>0.0102037120927346</v>
+      </c>
+      <c r="AN41">
+        <v>0.01064003531103945</v>
+      </c>
+      <c r="AO41">
+        <v>0.01042104119774961</v>
+      </c>
+      <c r="AP41">
+        <v>0.01150509161206129</v>
+      </c>
+      <c r="AR41">
+        <v>0.0119511070321812</v>
+      </c>
+      <c r="AS41">
+        <v>0.01208486540199266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45">
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42">
+        <v>-0.2816208753087122</v>
+      </c>
+      <c r="E42">
+        <v>-0.2832853401321678</v>
+      </c>
+      <c r="F42">
+        <v>-0.4829869479907456</v>
+      </c>
+      <c r="G42">
+        <v>-0.4910382898740948</v>
+      </c>
+      <c r="H42">
+        <v>0.5662592219091634</v>
+      </c>
+      <c r="I42">
+        <v>0.2976647206928452</v>
+      </c>
+      <c r="P42">
+        <v>0.2855098111071372</v>
+      </c>
+      <c r="Q42">
+        <v>-0.6597357861592066</v>
+      </c>
+      <c r="R42">
+        <v>-0.4925362356893535</v>
+      </c>
+      <c r="T42">
+        <v>0.3442338096940361</v>
+      </c>
+      <c r="Z42">
+        <v>0.5936746461890773</v>
+      </c>
+      <c r="AA42">
+        <v>0.5448696894126452</v>
+      </c>
+      <c r="AB42">
+        <v>0.7415024292667713</v>
+      </c>
+      <c r="AC42">
+        <v>-0.2589563394080737</v>
+      </c>
+      <c r="AD42">
+        <v>0.6218598412370124</v>
+      </c>
+      <c r="AE42">
+        <v>0.6169962235554555</v>
+      </c>
+      <c r="AF42">
+        <v>0.4628943725565141</v>
+      </c>
+      <c r="AG42">
+        <v>0.4441761686391355</v>
+      </c>
+      <c r="AH42">
+        <v>-0.471698160556035</v>
+      </c>
+      <c r="AI42">
+        <v>0.1688365205275599</v>
+      </c>
+      <c r="AJ42">
+        <v>-0.5264850933192644</v>
+      </c>
+      <c r="AK42">
+        <v>-0.4848213911622026</v>
+      </c>
+      <c r="AL42">
+        <v>0.3964807204967501</v>
+      </c>
+      <c r="AM42">
+        <v>0.4354630011457334</v>
+      </c>
+      <c r="AN42">
+        <v>0.4325899143999105</v>
+      </c>
+      <c r="AO42">
+        <v>0.4340196523657157</v>
+      </c>
+      <c r="AP42">
+        <v>0.427463020509891</v>
+      </c>
+      <c r="AR42">
+        <v>0.422734896267293</v>
+      </c>
+      <c r="AS42">
+        <v>0.4219534241614965</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43">
+        <v>0.329350852152207</v>
+      </c>
+      <c r="E43">
+        <v>0.3263776349671444</v>
+      </c>
+      <c r="F43">
+        <v>0.08021538626896893</v>
+      </c>
+      <c r="G43">
+        <v>0.07458561060122235</v>
+      </c>
+      <c r="H43">
+        <v>0.03476905160857129</v>
+      </c>
+      <c r="I43">
+        <v>0.30132755274806</v>
+      </c>
+      <c r="P43">
+        <v>0.3224278256836383</v>
+      </c>
+      <c r="Q43">
+        <v>0.01025258251882973</v>
+      </c>
+      <c r="R43">
+        <v>0.0735699411139593</v>
+      </c>
+      <c r="T43">
+        <v>0.2281298989354674</v>
+      </c>
+      <c r="Z43">
+        <v>0.02520215631893756</v>
+      </c>
+      <c r="AA43">
+        <v>0.04392042588675014</v>
+      </c>
+      <c r="AB43">
+        <v>0.002402707878991206</v>
+      </c>
+      <c r="AC43">
+        <v>0.3713335841762513</v>
+      </c>
+      <c r="AD43">
+        <v>0.01757805554035091</v>
+      </c>
+      <c r="AE43">
+        <v>0.01874882823256215</v>
+      </c>
+      <c r="AF43">
+        <v>0.09555715575805067</v>
+      </c>
+      <c r="AG43">
+        <v>0.1115815461163374</v>
+      </c>
+      <c r="AH43">
+        <v>0.08860366681050405</v>
+      </c>
+      <c r="AI43">
+        <v>0.5639405164631269</v>
+      </c>
+      <c r="AJ43">
+        <v>0.05309818735804035</v>
+      </c>
+      <c r="AK43">
+        <v>0.0789071695074023</v>
+      </c>
+      <c r="AL43">
+        <v>0.1604672386915157</v>
+      </c>
+      <c r="AM43">
+        <v>0.1196328268029371</v>
+      </c>
+      <c r="AN43">
+        <v>0.1223719404595137</v>
+      </c>
+      <c r="AO43">
+        <v>0.1210036112708199</v>
+      </c>
+      <c r="AP43">
+        <v>0.1273647635497559</v>
+      </c>
+      <c r="AR43">
+        <v>0.1320894883259021</v>
+      </c>
+      <c r="AS43">
+        <v>0.1328815812980896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44">
+        <v>-0.7799927653369567</v>
+      </c>
+      <c r="E44">
+        <v>-0.7808835418013452</v>
+      </c>
+      <c r="F44">
+        <v>-0.8917751531344015</v>
+      </c>
+      <c r="G44">
+        <v>-0.8930512915632696</v>
+      </c>
+      <c r="H44">
+        <v>0.8944675423581915</v>
+      </c>
+      <c r="I44">
+        <v>0.793674942745936</v>
+      </c>
+      <c r="J44">
+        <v>0.8279712476146531</v>
+      </c>
+      <c r="K44">
+        <v>-0.4864523870351115</v>
+      </c>
+      <c r="L44">
+        <v>0.8344893257207389</v>
+      </c>
+      <c r="M44">
+        <v>0.8125192652838326</v>
+      </c>
+      <c r="N44">
+        <v>0.8267480422016812</v>
+      </c>
+      <c r="O44">
+        <v>0.9136570457011728</v>
+      </c>
+      <c r="P44">
+        <v>0.7662196016120454</v>
+      </c>
+      <c r="Q44">
+        <v>-0.8695256988312803</v>
+      </c>
+      <c r="R44">
+        <v>-0.8970468812441859</v>
+      </c>
+      <c r="T44">
+        <v>0.8092964333447892</v>
+      </c>
+      <c r="U44">
+        <v>0.8616490771607962</v>
+      </c>
+      <c r="V44">
+        <v>0.737327297069757</v>
+      </c>
+      <c r="X44">
+        <v>-0.3364661998894739</v>
+      </c>
+      <c r="Z44">
+        <v>0.959818564644604</v>
+      </c>
+      <c r="AA44">
+        <v>0.9400613535243476</v>
+      </c>
+      <c r="AB44">
+        <v>0.9333421552057705</v>
+      </c>
+      <c r="AC44">
+        <v>-0.6656567917281919</v>
+      </c>
+      <c r="AD44">
+        <v>0.9505289197736263</v>
+      </c>
+      <c r="AE44">
+        <v>0.9523600384476132</v>
+      </c>
+      <c r="AF44">
+        <v>0.88571187971464</v>
+      </c>
+      <c r="AG44">
+        <v>0.8764302481831882</v>
+      </c>
+      <c r="AH44">
+        <v>-0.6291563559563921</v>
+      </c>
+      <c r="AI44">
+        <v>0.113706215790432</v>
+      </c>
+      <c r="AJ44">
+        <v>-0.6632938678121065</v>
+      </c>
+      <c r="AK44">
+        <v>-0.8945390800833618</v>
+      </c>
+      <c r="AL44">
+        <v>0.8458881963053444</v>
+      </c>
+      <c r="AM44">
+        <v>0.8707525372991086</v>
+      </c>
+      <c r="AN44">
+        <v>0.8693902511095223</v>
+      </c>
+      <c r="AO44">
+        <v>0.8700702409379897</v>
+      </c>
+      <c r="AP44">
+        <v>0.8660692775578783</v>
+      </c>
+      <c r="AR44">
+        <v>0.8628226905703152</v>
+      </c>
+      <c r="AS44">
+        <v>0.8624995948063193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45">
+        <v>0.001000141111527178</v>
+      </c>
+      <c r="E45">
+        <v>0.0009781278168240525</v>
+      </c>
+      <c r="F45">
+        <v>1.8303824358543e-05</v>
+      </c>
+      <c r="G45">
+        <v>1.70951501069875e-05</v>
+      </c>
+      <c r="H45">
+        <v>1.583109740025024e-05</v>
+      </c>
+      <c r="I45">
+        <v>0.0007024767968711261</v>
+      </c>
+      <c r="J45">
+        <v>0.0002554910102642457</v>
+      </c>
+      <c r="K45">
+        <v>0.07775674135378048</v>
+      </c>
+      <c r="L45">
+        <v>0.0002056920759226434</v>
+      </c>
+      <c r="M45">
+        <v>0.0004130940069999053</v>
+      </c>
+      <c r="N45">
+        <v>0.000265838582212714</v>
+      </c>
+      <c r="O45">
+        <v>4.955758070927602e-06</v>
+      </c>
+      <c r="P45">
+        <v>0.001393910386035658</v>
+      </c>
+      <c r="Q45">
+        <v>5.345795046829225e-05</v>
+      </c>
+      <c r="R45">
+        <v>1.372568534536396e-05</v>
+      </c>
+      <c r="T45">
+        <v>0.0004541767107478745</v>
+      </c>
+      <c r="U45">
+        <v>7.46481798527413e-05</v>
+      </c>
+      <c r="V45">
+        <v>0.002618973645951276</v>
+      </c>
+      <c r="X45">
+        <v>0.2394915169489813</v>
+      </c>
+      <c r="Z45">
+        <v>5.571251134063156e-08</v>
+      </c>
+      <c r="AA45">
+        <v>5.878778020352099e-07</v>
+      </c>
+      <c r="AB45">
+        <v>1.095824706637308e-06</v>
+      </c>
+      <c r="AC45">
+        <v>0.009363138705352842</v>
+      </c>
+      <c r="AD45">
+        <v>1.90155366865352e-07</v>
+      </c>
+      <c r="AE45">
+        <v>1.522529741702624e-07</v>
+      </c>
+      <c r="AF45">
+        <v>2.504307294469591e-05</v>
+      </c>
+      <c r="AG45">
+        <v>3.918284650501175e-05</v>
+      </c>
+      <c r="AH45">
+        <v>0.01592673221619618</v>
+      </c>
+      <c r="AI45">
+        <v>0.6987245246808806</v>
+      </c>
+      <c r="AJ45">
+        <v>0.009710644254729952</v>
+      </c>
+      <c r="AK45">
+        <v>1.576933850401234e-05</v>
+      </c>
+      <c r="AL45">
+        <v>0.0001375905739249222</v>
+      </c>
+      <c r="AM45">
+        <v>5.065207226168401e-05</v>
+      </c>
+      <c r="AN45">
+        <v>5.377534216288392e-05</v>
+      </c>
+      <c r="AO45">
+        <v>5.219730724313251e-05</v>
+      </c>
+      <c r="AP45">
+        <v>6.205149269415061e-05</v>
+      </c>
+      <c r="AR45">
+        <v>7.111721098168475e-05</v>
+      </c>
+      <c r="AS45">
+        <v>7.207542517665281e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45">
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46">
+        <v>0.6916568327915601</v>
+      </c>
+      <c r="E46">
+        <v>0.6922758093571643</v>
+      </c>
+      <c r="F46">
+        <v>0.6904399799108238</v>
+      </c>
+      <c r="G46">
+        <v>0.6923449353936653</v>
+      </c>
+      <c r="H46">
+        <v>-0.679308094662094</v>
+      </c>
+      <c r="I46">
+        <v>-0.7496919788750479</v>
+      </c>
+      <c r="J46">
+        <v>-0.7605450401843519</v>
+      </c>
+      <c r="K46">
+        <v>0.2623217242479669</v>
+      </c>
+      <c r="L46">
+        <v>-0.7276891911900677</v>
+      </c>
+      <c r="M46">
+        <v>-0.7785829507467904</v>
+      </c>
+      <c r="N46">
+        <v>-0.7624510210467115</v>
+      </c>
+      <c r="O46">
+        <v>-0.6568443202624952</v>
+      </c>
+      <c r="P46">
+        <v>-0.7077249925645752</v>
+      </c>
+      <c r="Q46">
+        <v>0.5527893123821798</v>
+      </c>
+      <c r="R46">
+        <v>0.6996065357175815</v>
+      </c>
+      <c r="T46">
+        <v>-0.7842795161945673</v>
+      </c>
+      <c r="U46">
+        <v>-0.2007027407904968</v>
+      </c>
+      <c r="Z46">
+        <v>-0.4853622475317997</v>
+      </c>
+      <c r="AA46">
+        <v>-0.6098254974795708</v>
+      </c>
+      <c r="AB46">
+        <v>-0.4526859896338802</v>
+      </c>
+      <c r="AC46">
+        <v>0.8823829843365741</v>
+      </c>
+      <c r="AD46">
+        <v>-0.5856755476264833</v>
+      </c>
+      <c r="AE46">
+        <v>-0.5841145791709367</v>
+      </c>
+      <c r="AF46">
+        <v>-0.7125111989180608</v>
+      </c>
+      <c r="AG46">
+        <v>-0.7195456882667751</v>
+      </c>
+      <c r="AH46">
+        <v>-0.3236846444314152</v>
+      </c>
+      <c r="AI46">
+        <v>-0.5719812481276683</v>
+      </c>
+      <c r="AJ46">
+        <v>-0.132874920952969</v>
+      </c>
+      <c r="AK46">
+        <v>0.7020514981145151</v>
+      </c>
+      <c r="AL46">
+        <v>-0.7543576627169422</v>
+      </c>
+      <c r="AM46">
+        <v>-0.7269927036912114</v>
+      </c>
+      <c r="AN46">
+        <v>-0.7277702466014321</v>
+      </c>
+      <c r="AO46">
+        <v>-0.7273861624057386</v>
+      </c>
+      <c r="AP46">
+        <v>-0.72731869319305</v>
+      </c>
+      <c r="AR46">
+        <v>-0.736023596073986</v>
+      </c>
+      <c r="AS46">
+        <v>-0.7361189352323632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47">
+        <v>0.00613878780348311</v>
+      </c>
+      <c r="E47">
+        <v>0.006074353386219769</v>
+      </c>
+      <c r="F47">
+        <v>0.006267011111629805</v>
+      </c>
+      <c r="G47">
+        <v>0.006067190314513542</v>
+      </c>
+      <c r="H47">
+        <v>0.007539272278589599</v>
+      </c>
+      <c r="I47">
+        <v>0.002019592871199035</v>
+      </c>
+      <c r="J47">
+        <v>0.001588238654695499</v>
+      </c>
+      <c r="K47">
+        <v>0.3649249802148975</v>
+      </c>
+      <c r="L47">
+        <v>0.003177075042188165</v>
+      </c>
+      <c r="M47">
+        <v>0.001035788513827145</v>
+      </c>
+      <c r="N47">
+        <v>0.00152070843305786</v>
+      </c>
+      <c r="O47">
+        <v>0.01070989767044741</v>
+      </c>
+      <c r="P47">
+        <v>0.004629535478376165</v>
+      </c>
+      <c r="Q47">
+        <v>0.04034803417438591</v>
+      </c>
+      <c r="R47">
+        <v>0.005350575850354263</v>
+      </c>
+      <c r="T47">
+        <v>0.0008977290191296895</v>
+      </c>
+      <c r="U47">
+        <v>0.4914537542351982</v>
+      </c>
+      <c r="Z47">
+        <v>0.07852435286753649</v>
+      </c>
+      <c r="AA47">
+        <v>0.02058150806260529</v>
+      </c>
+      <c r="AB47">
+        <v>0.1040840123583365</v>
+      </c>
+      <c r="AC47">
+        <v>2.952957524198852e-05</v>
+      </c>
+      <c r="AD47">
+        <v>0.02775940812282818</v>
+      </c>
+      <c r="AE47">
+        <v>0.02828022082574889</v>
+      </c>
+      <c r="AF47">
+        <v>0.004241581321243364</v>
+      </c>
+      <c r="AG47">
+        <v>0.003718151175843792</v>
+      </c>
+      <c r="AH47">
+        <v>0.2589266335905516</v>
+      </c>
+      <c r="AI47">
+        <v>0.03258063730590666</v>
+      </c>
+      <c r="AJ47">
+        <v>0.6506665101074759</v>
+      </c>
+      <c r="AK47">
+        <v>0.005124798501713371</v>
+      </c>
+      <c r="AL47">
+        <v>0.001824052580588817</v>
+      </c>
+      <c r="AM47">
+        <v>0.003220766650479216</v>
+      </c>
+      <c r="AN47">
+        <v>0.003172020806141871</v>
+      </c>
+      <c r="AO47">
+        <v>0.003196026706347139</v>
+      </c>
+      <c r="AP47">
+        <v>0.003200258377135239</v>
+      </c>
+      <c r="AR47">
+        <v>0.002689561029049151</v>
+      </c>
+      <c r="AS47">
+        <v>0.002684348653078172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45">
+      <c r="A48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48">
+        <v>-0.8968988360362494</v>
+      </c>
+      <c r="E48">
+        <v>-0.8977072171011155</v>
+      </c>
+      <c r="F48">
+        <v>-0.9726475469303358</v>
+      </c>
+      <c r="G48">
+        <v>-0.9734805583007818</v>
+      </c>
+      <c r="H48">
+        <v>0.9655280144323807</v>
+      </c>
+      <c r="I48">
+        <v>0.9130716909873623</v>
+      </c>
+      <c r="J48">
+        <v>0.9364254541435455</v>
+      </c>
+      <c r="K48">
+        <v>-0.539301476007473</v>
+      </c>
+      <c r="L48">
+        <v>0.930958468100252</v>
+      </c>
+      <c r="M48">
+        <v>0.9326661866007575</v>
+      </c>
+      <c r="N48">
+        <v>0.9390622513053595</v>
+      </c>
+      <c r="O48">
+        <v>0.9868516858755099</v>
+      </c>
+      <c r="P48">
+        <v>0.8800360561623898</v>
+      </c>
+      <c r="Q48">
+        <v>-0.8961550806732252</v>
+      </c>
+      <c r="R48">
+        <v>-0.9792782225660587</v>
+      </c>
+      <c r="T48">
+        <v>0.9291080607478195</v>
+      </c>
+      <c r="U48">
+        <v>0.7840955296733152</v>
+      </c>
+      <c r="V48">
+        <v>0.5994179962998266</v>
+      </c>
+      <c r="W48">
+        <v>0.965294816034494</v>
+      </c>
+      <c r="X48">
+        <v>-0.5519969614021104</v>
+      </c>
+      <c r="Z48">
+        <v>0.9878766323832835</v>
+      </c>
+      <c r="AA48">
+        <v>0.9884563102012515</v>
+      </c>
+      <c r="AB48">
+        <v>0.9182460848905122</v>
+      </c>
+      <c r="AC48">
+        <v>-0.8220335039180454</v>
+      </c>
+      <c r="AD48">
+        <v>0.9865689340711651</v>
+      </c>
+      <c r="AE48">
+        <v>0.9818208203589268</v>
+      </c>
+      <c r="AF48">
+        <v>0.9737864549313443</v>
+      </c>
+      <c r="AG48">
+        <v>0.9692338943060224</v>
+      </c>
+      <c r="AH48">
+        <v>-0.5000897785877312</v>
+      </c>
+      <c r="AI48">
+        <v>0.2351729300442656</v>
+      </c>
+      <c r="AJ48">
+        <v>-0.5816560719528892</v>
+      </c>
+      <c r="AK48">
+        <v>-0.9783949415988953</v>
+      </c>
+      <c r="AL48">
+        <v>0.9527408573410688</v>
+      </c>
+      <c r="AM48">
+        <v>0.9664092499114914</v>
+      </c>
+      <c r="AN48">
+        <v>0.9655989479084131</v>
+      </c>
+      <c r="AO48">
+        <v>0.9660048472702887</v>
+      </c>
+      <c r="AP48">
+        <v>0.9632849771826499</v>
+      </c>
+      <c r="AR48">
+        <v>0.9621706426353854</v>
+      </c>
+      <c r="AS48">
+        <v>0.9619737355858685</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45">
+      <c r="A49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49">
+        <v>1.383996057606757e-05</v>
+      </c>
+      <c r="E49">
+        <v>1.322534922331631e-05</v>
+      </c>
+      <c r="F49">
+        <v>5.700028514582331e-09</v>
+      </c>
+      <c r="G49">
+        <v>4.743174529237727e-09</v>
+      </c>
+      <c r="H49">
+        <v>2.24900364081709e-08</v>
+      </c>
+      <c r="I49">
+        <v>5.154092547917761e-06</v>
+      </c>
+      <c r="J49">
+        <v>8.303812759506026e-07</v>
+      </c>
+      <c r="K49">
+        <v>0.04656704605209486</v>
+      </c>
+      <c r="L49">
+        <v>1.345913488170681e-06</v>
+      </c>
+      <c r="M49">
+        <v>1.162483319992686e-06</v>
+      </c>
+      <c r="N49">
+        <v>6.47756191467539e-07</v>
+      </c>
+      <c r="O49">
+        <v>7.251777964422238e-11</v>
+      </c>
+      <c r="P49">
+        <v>3.307123309454355e-05</v>
+      </c>
+      <c r="Q49">
+        <v>1.442592434419102e-05</v>
+      </c>
+      <c r="R49">
+        <v>1.093177873818837e-09</v>
+      </c>
+      <c r="T49">
+        <v>1.570960431665172e-06</v>
+      </c>
+      <c r="U49">
+        <v>0.0009019446706374904</v>
+      </c>
+      <c r="V49">
+        <v>0.02347804117846386</v>
+      </c>
+      <c r="W49">
+        <v>2.340660695571673e-08</v>
+      </c>
+      <c r="X49">
+        <v>0.040695493149605</v>
+      </c>
+      <c r="Z49">
+        <v>4.466037036993369e-11</v>
+      </c>
+      <c r="AA49">
+        <v>3.332671789101517e-11</v>
+      </c>
+      <c r="AB49">
+        <v>3.607579062543218e-06</v>
+      </c>
+      <c r="AC49">
+        <v>0.0003089367569296888</v>
+      </c>
+      <c r="AD49">
+        <v>8.23421948492384e-11</v>
+      </c>
+      <c r="AE49">
+        <v>5.01139820621165e-10</v>
+      </c>
+      <c r="AF49">
+        <v>4.427158234700869e-09</v>
+      </c>
+      <c r="AG49">
+        <v>1.14583220755113e-08</v>
+      </c>
+      <c r="AH49">
+        <v>0.06859735832055071</v>
+      </c>
+      <c r="AI49">
+        <v>0.4183174083834671</v>
+      </c>
+      <c r="AJ49">
+        <v>0.02911523631065692</v>
+      </c>
+      <c r="AK49">
+        <v>1.401627401971783e-09</v>
+      </c>
+      <c r="AL49">
+        <v>1.452156822121399e-07</v>
+      </c>
+      <c r="AM49">
+        <v>1.929042390445874e-08</v>
+      </c>
+      <c r="AN49">
+        <v>2.221721555302743e-08</v>
+      </c>
+      <c r="AO49">
+        <v>2.070828514596955e-08</v>
+      </c>
+      <c r="AP49">
+        <v>3.266917687984168e-08</v>
+      </c>
+      <c r="AR49">
+        <v>3.899390652822493e-08</v>
+      </c>
+      <c r="AS49">
+        <v>4.021044995181644e-08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45">
+      <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50">
+        <v>0.9391069720087309</v>
+      </c>
+      <c r="I50">
+        <v>0.9070573179868106</v>
+      </c>
+      <c r="R50">
+        <v>-0.9583995141302831</v>
+      </c>
+      <c r="AA50">
+        <v>0.9598279228462482</v>
+      </c>
+      <c r="AK50">
+        <v>-0.9583959950437427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45">
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51">
+        <v>6.449725008843956e-07</v>
+      </c>
+      <c r="I51">
+        <v>7.597573803208087e-06</v>
+      </c>
+      <c r="R51">
+        <v>6.839877904130451e-08</v>
+      </c>
+      <c r="AA51">
+        <v>5.563583796944933e-08</v>
+      </c>
+      <c r="AK51">
+        <v>6.843297789815549e-08</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45">
+      <c r="A52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52">
+        <v>0.9637957399472594</v>
+      </c>
+      <c r="I52">
+        <v>0.9183733393728111</v>
+      </c>
+      <c r="R52">
+        <v>-0.9807792493375641</v>
+      </c>
+      <c r="AK52">
+        <v>-0.9798826363030082</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45">
+      <c r="A53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53">
+        <v>3.006876959340712e-08</v>
+      </c>
+      <c r="I53">
+        <v>3.575024422004057e-06</v>
+      </c>
+      <c r="R53">
+        <v>6.984877769848359e-10</v>
+      </c>
+      <c r="AK53">
+        <v>9.164784113035405e-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45">
+      <c r="A54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54">
+        <v>-0.7015167318196039</v>
+      </c>
+      <c r="E54">
+        <v>-0.7028670788374872</v>
+      </c>
+      <c r="F54">
+        <v>-0.883737564664808</v>
+      </c>
+      <c r="G54">
+        <v>-0.8876446703303889</v>
+      </c>
+      <c r="H54">
+        <v>0.9176014414312793</v>
+      </c>
+      <c r="I54">
+        <v>0.7343840887192127</v>
+      </c>
+      <c r="P54">
+        <v>0.6797919743307052</v>
+      </c>
+      <c r="Q54">
+        <v>-0.9442040915092438</v>
+      </c>
+      <c r="R54">
+        <v>-0.8838901020262571</v>
+      </c>
+      <c r="T54">
+        <v>0.7855442199840994</v>
+      </c>
+      <c r="Z54">
+        <v>0.8750244980962451</v>
+      </c>
+      <c r="AA54">
+        <v>0.9033337023679898</v>
+      </c>
+      <c r="AC54">
+        <v>-0.6696808780464616</v>
+      </c>
+      <c r="AD54">
+        <v>0.9614827901523401</v>
+      </c>
+      <c r="AE54">
+        <v>0.9438419865029697</v>
+      </c>
+      <c r="AF54">
+        <v>0.867026868303004</v>
+      </c>
+      <c r="AG54">
+        <v>0.8536511760608135</v>
+      </c>
+      <c r="AH54">
+        <v>-0.338550725139164</v>
+      </c>
+      <c r="AI54">
+        <v>0.2065556110429088</v>
+      </c>
+      <c r="AJ54">
+        <v>-0.3895542120420997</v>
+      </c>
+      <c r="AK54">
+        <v>-0.8784250547537207</v>
+      </c>
+      <c r="AL54">
+        <v>0.8231914614385188</v>
+      </c>
+      <c r="AM54">
+        <v>0.845758122619492</v>
+      </c>
+      <c r="AN54">
+        <v>0.8435305813904457</v>
+      </c>
+      <c r="AO54">
+        <v>0.844640505396124</v>
+      </c>
+      <c r="AP54">
+        <v>0.8397652307660669</v>
+      </c>
+      <c r="AR54">
+        <v>0.8385098982817674</v>
+      </c>
+      <c r="AS54">
+        <v>0.8378872624014917</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45">
+      <c r="A55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55">
+        <v>0.00517353273967119</v>
+      </c>
+      <c r="E55">
+        <v>0.005051164653454678</v>
+      </c>
+      <c r="F55">
+        <v>2.763081251123629e-05</v>
+      </c>
+      <c r="G55">
+        <v>2.270518846965435e-05</v>
+      </c>
+      <c r="H55">
+        <v>3.776264156814701e-06</v>
+      </c>
+      <c r="I55">
+        <v>0.002780453192426691</v>
+      </c>
+      <c r="P55">
+        <v>0.007480116526226588</v>
+      </c>
+      <c r="Q55">
+        <v>3.860151482178692e-07</v>
+      </c>
+      <c r="R55">
+        <v>2.742340138309486e-05</v>
+      </c>
+      <c r="T55">
+        <v>0.0008691756645712426</v>
+      </c>
+      <c r="Z55">
+        <v>4.180203167390358e-05</v>
+      </c>
+      <c r="AA55">
+        <v>9.537523115200478e-06</v>
+      </c>
+      <c r="AC55">
+        <v>0.008793507588015243</v>
+      </c>
+      <c r="AD55">
+        <v>4.338124582193394e-08</v>
+      </c>
+      <c r="AE55">
+        <v>4.009739045104001e-07</v>
+      </c>
+      <c r="AF55">
+        <v>5.956544902230664e-05</v>
+      </c>
+      <c r="AG55">
+        <v>0.0001027027575302837</v>
+      </c>
+      <c r="AH55">
+        <v>0.2364091465700916</v>
+      </c>
+      <c r="AI55">
+        <v>0.4786334546659251</v>
+      </c>
+      <c r="AJ55">
+        <v>0.168570804358225</v>
+      </c>
+      <c r="AK55">
+        <v>3.569744143099155e-05</v>
+      </c>
+      <c r="AL55">
+        <v>0.0002978632624997458</v>
+      </c>
+      <c r="AM55">
+        <v>0.0001382478216383909</v>
+      </c>
+      <c r="AN55">
+        <v>0.0001499045519640761</v>
+      </c>
+      <c r="AO55">
+        <v>0.0001440006606740446</v>
+      </c>
+      <c r="AP55">
+        <v>0.0001714131889477382</v>
+      </c>
+      <c r="AR55">
+        <v>0.000179115369566313</v>
+      </c>
+      <c r="AS55">
+        <v>0.0001830382530187928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45">
+      <c r="A56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56">
+        <v>0.8645143885968344</v>
+      </c>
+      <c r="E56">
+        <v>0.8653501326175629</v>
+      </c>
+      <c r="F56">
+        <v>0.8758291853234937</v>
+      </c>
+      <c r="G56">
+        <v>0.8784436141460864</v>
+      </c>
+      <c r="H56">
+        <v>-0.8894684508791075</v>
+      </c>
+      <c r="I56">
+        <v>-0.9254735899247519</v>
+      </c>
+      <c r="P56">
+        <v>-0.8897490975783122</v>
+      </c>
+      <c r="Q56">
+        <v>0.7422869970662334</v>
+      </c>
+      <c r="R56">
+        <v>0.9084651225081677</v>
+      </c>
+      <c r="T56">
+        <v>-0.9456040216627588</v>
+      </c>
+      <c r="Z56">
+        <v>-0.7984477746580541</v>
+      </c>
+      <c r="AA56">
+        <v>-0.8478109619125497</v>
+      </c>
+      <c r="AD56">
+        <v>-0.8128715064823101</v>
+      </c>
+      <c r="AE56">
+        <v>-0.8158915688992963</v>
+      </c>
+      <c r="AF56">
+        <v>-0.9131124928968321</v>
+      </c>
+      <c r="AG56">
+        <v>-0.918076141968973</v>
+      </c>
+      <c r="AH56">
+        <v>0.1103557091919827</v>
+      </c>
+      <c r="AI56">
+        <v>-0.5789784742158746</v>
+      </c>
+      <c r="AJ56">
+        <v>0.3370792377109217</v>
+      </c>
+      <c r="AK56">
+        <v>0.9104410031367027</v>
+      </c>
+      <c r="AL56">
+        <v>-0.9362581212408552</v>
+      </c>
+      <c r="AM56">
+        <v>-0.9240561294018093</v>
+      </c>
+      <c r="AN56">
+        <v>-0.9244708794990896</v>
+      </c>
+      <c r="AO56">
+        <v>-0.9242677538544422</v>
+      </c>
+      <c r="AP56">
+        <v>-0.9257884474975729</v>
+      </c>
+      <c r="AR56">
+        <v>-0.9283186998630065</v>
+      </c>
+      <c r="AS56">
+        <v>-0.9283724370181815</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45">
+      <c r="A57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57">
+        <v>6.626783622259275e-05</v>
+      </c>
+      <c r="E57">
+        <v>6.397352974202162e-05</v>
+      </c>
+      <c r="F57">
+        <v>4.028583321643951e-05</v>
+      </c>
+      <c r="G57">
+        <v>3.566624594332688e-05</v>
+      </c>
+      <c r="H57">
+        <v>2.066593447719736e-05</v>
+      </c>
+      <c r="I57">
+        <v>2.103603677426393e-06</v>
+      </c>
+      <c r="P57">
+        <v>2.036588872933226e-05</v>
+      </c>
+      <c r="Q57">
+        <v>0.002363693927935382</v>
+      </c>
+      <c r="R57">
+        <v>6.954445297157828e-06</v>
+      </c>
+      <c r="T57">
+        <v>3.324470883532316e-07</v>
+      </c>
+      <c r="Z57">
+        <v>0.0006172615413432217</v>
+      </c>
+      <c r="AA57">
+        <v>0.0001281670395109751</v>
+      </c>
+      <c r="AD57">
+        <v>0.0004087917048357498</v>
+      </c>
+      <c r="AE57">
+        <v>0.00037336502674978</v>
+      </c>
+      <c r="AF57">
+        <v>5.140059574849706e-06</v>
+      </c>
+      <c r="AG57">
+        <v>3.651434325428866e-06</v>
+      </c>
+      <c r="AH57">
+        <v>0.7072393434740494</v>
+      </c>
+      <c r="AI57">
+        <v>0.03004542595915891</v>
+      </c>
+      <c r="AJ57">
+        <v>0.2385824825450597</v>
+      </c>
+      <c r="AK57">
+        <v>6.127798472739982e-06</v>
+      </c>
+      <c r="AL57">
+        <v>8.432714622214271e-07</v>
+      </c>
+      <c r="AM57">
+        <v>2.34800998990638e-06</v>
+      </c>
+      <c r="AN57">
+        <v>2.274196062683074e-06</v>
+      </c>
+      <c r="AO57">
+        <v>2.310104179013864e-06</v>
+      </c>
+      <c r="AP57">
+        <v>2.052265811553428e-06</v>
+      </c>
+      <c r="AR57">
+        <v>1.675960064369386e-06</v>
+      </c>
+      <c r="AS57">
+        <v>1.668633375972744e-06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45">
+      <c r="A58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <v>-0.8612824513519702</v>
+      </c>
+      <c r="E58">
+        <v>-0.8622961534404271</v>
+      </c>
+      <c r="F58">
+        <v>-0.973504044291292</v>
+      </c>
+      <c r="G58">
+        <v>-0.9754060893858202</v>
+      </c>
+      <c r="H58">
+        <v>0.9784735164174184</v>
+      </c>
+      <c r="I58">
+        <v>0.8845781816048284</v>
+      </c>
+      <c r="P58">
+        <v>0.8425540728786681</v>
+      </c>
+      <c r="Q58">
+        <v>-0.9359279018968339</v>
+      </c>
+      <c r="R58">
+        <v>-0.9760041912376386</v>
+      </c>
+      <c r="T58">
+        <v>0.9161968322068811</v>
+      </c>
+      <c r="Z58">
+        <v>0.9573086006434411</v>
+      </c>
+      <c r="AA58">
+        <v>0.9788445173641197</v>
+      </c>
+      <c r="AE58">
+        <v>0.9869991869005511</v>
+      </c>
+      <c r="AF58">
+        <v>0.9675492638167361</v>
+      </c>
+      <c r="AG58">
+        <v>0.9605892130634888</v>
+      </c>
+      <c r="AH58">
+        <v>-0.3897226060808507</v>
+      </c>
+      <c r="AI58">
+        <v>0.2570570472975993</v>
+      </c>
+      <c r="AJ58">
+        <v>-0.4694320364092264</v>
+      </c>
+      <c r="AK58">
+        <v>-0.9736169161667291</v>
+      </c>
+      <c r="AL58">
+        <v>0.942119509208629</v>
+      </c>
+      <c r="AM58">
+        <v>0.9563220614593045</v>
+      </c>
+      <c r="AN58">
+        <v>0.9550634681302702</v>
+      </c>
+      <c r="AO58">
+        <v>0.9556921241281315</v>
+      </c>
+      <c r="AP58">
+        <v>0.9523503874447524</v>
+      </c>
+      <c r="AR58">
+        <v>0.9518758840838578</v>
+      </c>
+      <c r="AS58">
+        <v>0.9515329840149991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45">
+      <c r="A59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59">
+        <v>7.578000466955951e-05</v>
+      </c>
+      <c r="E59">
+        <v>7.268415031291714e-05</v>
+      </c>
+      <c r="F59">
+        <v>4.718266478849457e-09</v>
+      </c>
+      <c r="G59">
+        <v>3.030110689902038e-09</v>
+      </c>
+      <c r="H59">
+        <v>1.37155179773469e-09</v>
+      </c>
+      <c r="I59">
+        <v>2.650354583972355e-05</v>
+      </c>
+      <c r="P59">
+        <v>0.0001552596784294176</v>
+      </c>
+      <c r="Q59">
+        <v>8.691939992552071e-07</v>
+      </c>
+      <c r="R59">
+        <v>2.617382976419657e-09</v>
+      </c>
+      <c r="T59">
+        <v>4.166354450962889e-06</v>
+      </c>
+      <c r="Z59">
+        <v>7.970177324141766e-08</v>
+      </c>
+      <c r="AA59">
+        <v>1.236686064066059e-09</v>
+      </c>
+      <c r="AE59">
+        <v>6.779304446404923e-11</v>
+      </c>
+      <c r="AF59">
+        <v>1.571975357060263e-08</v>
+      </c>
+      <c r="AG59">
+        <v>4.968430877390996e-08</v>
+      </c>
+      <c r="AH59">
+        <v>0.1683706960992006</v>
+      </c>
+      <c r="AI59">
+        <v>0.3749769218986241</v>
+      </c>
+      <c r="AJ59">
+        <v>0.09035860813247241</v>
+      </c>
+      <c r="AK59">
+        <v>4.600069765679073e-09</v>
+      </c>
+      <c r="AL59">
+        <v>4.788498042257556e-07</v>
+      </c>
+      <c r="AM59">
+        <v>9.121463548771121e-08</v>
+      </c>
+      <c r="AN59">
+        <v>1.078690993973771e-07</v>
+      </c>
+      <c r="AO59">
+        <v>9.926148946168507e-08</v>
+      </c>
+      <c r="AP59">
+        <v>1.52434917802554e-07</v>
+      </c>
+      <c r="AR59">
+        <v>1.616049920627116e-07</v>
+      </c>
+      <c r="AS59">
+        <v>1.685119134100381e-07</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45">
+      <c r="A60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60">
+        <v>-0.846089667958134</v>
+      </c>
+      <c r="E60">
+        <v>-0.8470697017263097</v>
+      </c>
+      <c r="F60">
+        <v>-0.9619650659909333</v>
+      </c>
+      <c r="G60">
+        <v>-0.9635803627772536</v>
+      </c>
+      <c r="H60">
+        <v>0.9593828633427073</v>
+      </c>
+      <c r="I60">
+        <v>0.8829644153540471</v>
+      </c>
+      <c r="R60">
+        <v>-0.9667025609716706</v>
+      </c>
+      <c r="T60">
+        <v>0.9100736402666671</v>
+      </c>
+      <c r="Z60">
+        <v>0.943699132795051</v>
+      </c>
+      <c r="AA60">
+        <v>0.9905511244796976</v>
+      </c>
+      <c r="AH60">
+        <v>-0.4290505266187401</v>
+      </c>
+      <c r="AI60">
+        <v>0.2182971232244486</v>
+      </c>
+      <c r="AJ60">
+        <v>-0.4852838067362287</v>
+      </c>
+      <c r="AK60">
+        <v>-0.9647107346019009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45">
+      <c r="A61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61">
+        <v>0.0001365775660118389</v>
+      </c>
+      <c r="E61">
+        <v>0.0001317358341847262</v>
+      </c>
+      <c r="F61">
+        <v>4.026472735780589e-08</v>
+      </c>
+      <c r="G61">
+        <v>3.114353912977142e-08</v>
+      </c>
+      <c r="H61">
+        <v>5.938050404016483e-08</v>
+      </c>
+      <c r="I61">
+        <v>2.870191677959071e-05</v>
+      </c>
+      <c r="R61">
+        <v>1.831323828192591e-08</v>
+      </c>
+      <c r="T61">
+        <v>6.275046129296996e-06</v>
+      </c>
+      <c r="Z61">
+        <v>4.070054799046143e-07</v>
+      </c>
+      <c r="AA61">
+        <v>1.006845863935692e-11</v>
+      </c>
+      <c r="AH61">
+        <v>0.1258043284087591</v>
+      </c>
+      <c r="AI61">
+        <v>0.4534024957468512</v>
+      </c>
+      <c r="AJ61">
+        <v>0.07857979162921698</v>
+      </c>
+      <c r="AK61">
+        <v>2.583907351597816e-08</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45">
+      <c r="A62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62">
+        <v>-0.939107168293192</v>
+      </c>
+      <c r="E62">
+        <v>-0.9398522009743465</v>
+      </c>
+      <c r="F62">
+        <v>-0.9911429163989518</v>
+      </c>
+      <c r="G62">
+        <v>-0.9917714180765729</v>
+      </c>
+      <c r="H62">
+        <v>0.9724423078467115</v>
+      </c>
+      <c r="I62">
+        <v>0.9714951324928617</v>
+      </c>
+      <c r="P62">
+        <v>0.926966217365877</v>
+      </c>
+      <c r="Q62">
+        <v>-0.8605584117018625</v>
+      </c>
+      <c r="R62">
+        <v>-0.9982403840621622</v>
+      </c>
+      <c r="T62">
+        <v>0.9868709175830399</v>
+      </c>
+      <c r="Z62">
+        <v>0.9541600561466331</v>
+      </c>
+      <c r="AA62">
+        <v>0.9752593485211604</v>
+      </c>
+      <c r="AE62">
+        <v>0.9594643143875889</v>
+      </c>
+      <c r="AG62">
+        <v>0.9996171099880037</v>
+      </c>
+      <c r="AH62">
+        <v>-0.3422114273206484</v>
+      </c>
+      <c r="AI62">
+        <v>0.3567837706655143</v>
+      </c>
+      <c r="AJ62">
+        <v>-0.4698512399234011</v>
+      </c>
+      <c r="AK62">
+        <v>-0.9988948613858375</v>
+      </c>
+      <c r="AL62">
+        <v>0.9961265832466425</v>
+      </c>
+      <c r="AM62">
+        <v>0.9991216574321169</v>
+      </c>
+      <c r="AN62">
+        <v>0.9989408425994406</v>
+      </c>
+      <c r="AO62">
+        <v>0.9990339405834521</v>
+      </c>
+      <c r="AP62">
+        <v>0.9983281679331546</v>
+      </c>
+      <c r="AR62">
+        <v>0.9984175952396774</v>
+      </c>
+      <c r="AS62">
+        <v>0.9983569781849196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45">
+      <c r="A63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63">
+        <v>6.449603047418701e-07</v>
+      </c>
+      <c r="E63">
+        <v>6.00018418247007e-07</v>
+      </c>
+      <c r="F63">
+        <v>6.838792312167719e-12</v>
+      </c>
+      <c r="G63">
+        <v>4.403234417376641e-12</v>
+      </c>
+      <c r="H63">
+        <v>5.958861941238934e-09</v>
+      </c>
+      <c r="I63">
+        <v>7.283315897467513e-09</v>
+      </c>
+      <c r="P63">
+        <v>1.869286432675204e-06</v>
+      </c>
+      <c r="Q63">
+        <v>7.80562514417476e-05</v>
+      </c>
+      <c r="R63">
+        <v>4.269344495506291e-16</v>
+      </c>
+      <c r="T63">
+        <v>7.188666053655069e-11</v>
+      </c>
+      <c r="Z63">
+        <v>1.213132504206185e-07</v>
+      </c>
+      <c r="AA63">
+        <v>3.139220663119768e-09</v>
+      </c>
+      <c r="AE63">
+        <v>5.868001533882444e-08</v>
+      </c>
+      <c r="AG63">
+        <v>4.545481206434957e-20</v>
+      </c>
+      <c r="AH63">
+        <v>0.2310553141695905</v>
+      </c>
+      <c r="AI63">
+        <v>0.2104901246218428</v>
+      </c>
+      <c r="AJ63">
+        <v>0.09003215369377814</v>
+      </c>
+      <c r="AK63">
+        <v>2.623999933151035e-17</v>
+      </c>
+      <c r="AL63">
+        <v>4.835594669621444e-14</v>
+      </c>
+      <c r="AM63">
+        <v>6.616952673682225e-18</v>
+      </c>
+      <c r="AN63">
+        <v>2.033616878641789e-17</v>
+      </c>
+      <c r="AO63">
+        <v>1.171158865531131e-17</v>
+      </c>
+      <c r="AP63">
+        <v>3.141170668676294e-16</v>
+      </c>
+      <c r="AR63">
+        <v>2.259042433799223e-16</v>
+      </c>
+      <c r="AS63">
+        <v>2.830234594783063e-16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45">
+      <c r="A64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64">
+        <v>-0.94468125999937</v>
+      </c>
+      <c r="E64">
+        <v>-0.9453873831545173</v>
+      </c>
+      <c r="F64">
+        <v>-0.9894661745503066</v>
+      </c>
+      <c r="G64">
+        <v>-0.9899049748708474</v>
+      </c>
+      <c r="H64">
+        <v>0.9677588306582683</v>
+      </c>
+      <c r="I64">
+        <v>0.9772046187678256</v>
+      </c>
+      <c r="P64">
+        <v>0.9324831249431607</v>
+      </c>
+      <c r="Q64">
+        <v>-0.8484036717592612</v>
+      </c>
+      <c r="R64">
+        <v>-0.9967556680648503</v>
+      </c>
+      <c r="T64">
+        <v>0.9903166539364519</v>
+      </c>
+      <c r="Z64">
+        <v>0.9516580269343919</v>
+      </c>
+      <c r="AA64">
+        <v>0.970821758853798</v>
+      </c>
+      <c r="AE64">
+        <v>0.9521394341920328</v>
+      </c>
+      <c r="AH64">
+        <v>-0.3391514961297138</v>
+      </c>
+      <c r="AI64">
+        <v>0.363739665514003</v>
+      </c>
+      <c r="AJ64">
+        <v>-0.4711202179035298</v>
+      </c>
+      <c r="AK64">
+        <v>-0.9977511141778136</v>
+      </c>
+      <c r="AL64">
+        <v>0.9979216861521252</v>
+      </c>
+      <c r="AM64">
+        <v>0.9998151252511711</v>
+      </c>
+      <c r="AN64">
+        <v>0.9997542777930266</v>
+      </c>
+      <c r="AO64">
+        <v>0.999787745545909</v>
+      </c>
+      <c r="AP64">
+        <v>0.9994403927881985</v>
+      </c>
+      <c r="AR64">
+        <v>0.9994819788803502</v>
+      </c>
+      <c r="AS64">
+        <v>0.9994537713474375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45">
+      <c r="A65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65">
+        <v>3.670099604732534e-07</v>
+      </c>
+      <c r="E65">
+        <v>3.403092028130155e-07</v>
+      </c>
+      <c r="F65">
+        <v>1.928347350987083e-11</v>
+      </c>
+      <c r="G65">
+        <v>1.49528166370284e-11</v>
+      </c>
+      <c r="H65">
+        <v>1.512727333900317e-08</v>
+      </c>
+      <c r="I65">
+        <v>1.928695133060159e-09</v>
+      </c>
+      <c r="P65">
+        <v>1.181099490965004e-06</v>
+      </c>
+      <c r="Q65">
+        <v>0.0001253702484097538</v>
+      </c>
+      <c r="R65">
+        <v>1.671946916438016e-14</v>
+      </c>
+      <c r="T65">
+        <v>1.165778157810536e-11</v>
+      </c>
+      <c r="Z65">
+        <v>1.659654811154129e-07</v>
+      </c>
+      <c r="AA65">
+        <v>8.366345763298783e-09</v>
+      </c>
+      <c r="AE65">
+        <v>1.564570461873056e-07</v>
+      </c>
+      <c r="AH65">
+        <v>0.2355253343433157</v>
+      </c>
+      <c r="AI65">
+        <v>0.2010934909002067</v>
+      </c>
+      <c r="AJ65">
+        <v>0.08904895736243026</v>
+      </c>
+      <c r="AK65">
+        <v>1.858671451190816e-15</v>
+      </c>
+      <c r="AL65">
+        <v>1.158307456111146e-15</v>
+      </c>
+      <c r="AM65">
+        <v>5.762162777198938e-22</v>
+      </c>
+      <c r="AN65">
+        <v>3.176360256558569e-21</v>
+      </c>
+      <c r="AO65">
+        <v>1.319578812130723e-21</v>
+      </c>
+      <c r="AP65">
+        <v>4.428646017829728e-19</v>
+      </c>
+      <c r="AR65">
+        <v>2.786728499172257e-19</v>
+      </c>
+      <c r="AS65">
+        <v>3.830279533680348e-19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45">
+      <c r="A66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66">
+        <v>-0.3106912807408853</v>
+      </c>
+      <c r="I66">
+        <v>-0.319634815148521</v>
+      </c>
+      <c r="R66">
+        <v>0.3510378119896599</v>
+      </c>
+      <c r="T66">
+        <v>-0.2670989194644206</v>
+      </c>
+      <c r="Z66">
+        <v>-0.5723341782606955</v>
+      </c>
+      <c r="AA66">
+        <v>-0.4612010294915286</v>
+      </c>
+      <c r="AJ66">
         <v>0.8943274887172598</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
+      <c r="AK66">
+        <v>0.3521649920784169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45">
+      <c r="A67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H67">
+        <v>0.2796259452316603</v>
+      </c>
+      <c r="I67">
+        <v>0.2652765209192365</v>
+      </c>
+      <c r="R67">
+        <v>0.2184566592212157</v>
+      </c>
+      <c r="T67">
+        <v>0.3559318235982475</v>
+      </c>
+      <c r="Z67">
+        <v>0.03244909023139343</v>
+      </c>
+      <c r="AA67">
+        <v>0.09693679502268926</v>
+      </c>
+      <c r="AJ67">
         <v>1.595258011232457e-05</v>
+      </c>
+      <c r="AK67">
+        <v>0.2168792654736848</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45">
+      <c r="A68" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68">
+        <v>-0.3030433980467244</v>
+      </c>
+      <c r="E68">
+        <v>-0.3041870368680789</v>
+      </c>
+      <c r="F68">
+        <v>-0.3095455548536272</v>
+      </c>
+      <c r="G68">
+        <v>-0.3174373318885777</v>
+      </c>
+      <c r="H68">
+        <v>0.366307083956019</v>
+      </c>
+      <c r="I68">
+        <v>0.3948574270509859</v>
+      </c>
+      <c r="R68">
+        <v>-0.3473432141369465</v>
+      </c>
+      <c r="T68">
+        <v>0.4193836241054665</v>
+      </c>
+      <c r="Z68">
+        <v>0.2522509362014064</v>
+      </c>
+      <c r="AA68">
+        <v>0.2028411508890195</v>
+      </c>
+      <c r="AH68">
+        <v>0.3521676145694771</v>
+      </c>
+      <c r="AK68">
+        <v>-0.3492271994678177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45">
+      <c r="A69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69">
+        <v>0.2922521218289983</v>
+      </c>
+      <c r="E69">
+        <v>0.2903432552313962</v>
+      </c>
+      <c r="F69">
+        <v>0.281496625089043</v>
+      </c>
+      <c r="G69">
+        <v>0.2687606415827659</v>
+      </c>
+      <c r="H69">
+        <v>0.1976934873119685</v>
+      </c>
+      <c r="I69">
+        <v>0.1623429973174284</v>
+      </c>
+      <c r="R69">
+        <v>0.2236769719898687</v>
+      </c>
+      <c r="T69">
+        <v>0.1355087808794054</v>
+      </c>
+      <c r="Z69">
+        <v>0.3842814552678491</v>
+      </c>
+      <c r="AA69">
+        <v>0.4867512527590137</v>
+      </c>
+      <c r="AH69">
+        <v>0.2168756038349024</v>
+      </c>
+      <c r="AK69">
+        <v>0.2210053955445679</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45">
+      <c r="A70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70">
+        <v>-0.4438742148637099</v>
+      </c>
+      <c r="I70">
+        <v>-0.4699876322075043</v>
+      </c>
+      <c r="R70">
+        <v>0.4754739119912802</v>
+      </c>
+      <c r="T70">
+        <v>-0.4215575623403663</v>
+      </c>
+      <c r="Z70">
+        <v>-0.6793497299498539</v>
+      </c>
+      <c r="AA70">
+        <v>-0.5184655961683812</v>
+      </c>
+      <c r="AK70">
+        <v>0.4777276661931188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45">
+      <c r="A71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H71">
+        <v>0.1118541820971626</v>
+      </c>
+      <c r="I71">
+        <v>0.08992611603212722</v>
+      </c>
+      <c r="R71">
+        <v>0.08573278360863582</v>
+      </c>
+      <c r="T71">
+        <v>0.13328403790925</v>
+      </c>
+      <c r="Z71">
+        <v>0.007534168019705758</v>
+      </c>
+      <c r="AA71">
+        <v>0.05750782416440667</v>
+      </c>
+      <c r="AK71">
+        <v>0.08405056580734345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45">
+      <c r="A72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R72">
+        <v>0.9998982761899635</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45">
+      <c r="A73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R73">
+        <v>1.599311415409391e-23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45">
+      <c r="A74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74">
+        <v>-0.949851176274103</v>
+      </c>
+      <c r="E74">
+        <v>-0.950508062659106</v>
+      </c>
+      <c r="F74">
+        <v>-0.9823087833125276</v>
+      </c>
+      <c r="G74">
+        <v>-0.9825850147274923</v>
+      </c>
+      <c r="H74">
+        <v>0.9573341628284657</v>
+      </c>
+      <c r="I74">
+        <v>0.9856502627961813</v>
+      </c>
+      <c r="P74">
+        <v>0.9396069198509859</v>
+      </c>
+      <c r="Q74">
+        <v>-0.8253359643788789</v>
+      </c>
+      <c r="R74">
+        <v>-0.9910053372421382</v>
+      </c>
+      <c r="T74">
+        <v>0.9968752965455487</v>
+      </c>
+      <c r="Z74">
+        <v>0.9349153455613159</v>
+      </c>
+      <c r="AA74">
+        <v>0.9580550657140162</v>
+      </c>
+      <c r="AE74">
+        <v>0.9348432273978757</v>
+      </c>
+      <c r="AH74">
+        <v>-0.3057217412628548</v>
+      </c>
+      <c r="AI74">
+        <v>0.3895405219969044</v>
+      </c>
+      <c r="AJ74">
+        <v>-0.4485608008712846</v>
+      </c>
+      <c r="AK74">
+        <v>-0.992601108674136</v>
+      </c>
+      <c r="AM74">
+        <v>0.9986910787598808</v>
+      </c>
+      <c r="AN74">
+        <v>0.9988528405263063</v>
+      </c>
+      <c r="AO74">
+        <v>0.9987756604459873</v>
+      </c>
+      <c r="AP74">
+        <v>0.998938620817682</v>
+      </c>
+      <c r="AR74">
+        <v>0.9994122611911502</v>
+      </c>
+      <c r="AS74">
+        <v>0.99943847578973</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45">
+      <c r="A75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75">
+        <v>2.060257236420703e-07</v>
+      </c>
+      <c r="E75">
+        <v>1.906282050949421e-07</v>
+      </c>
+      <c r="F75">
+        <v>4.261051370019948e-10</v>
+      </c>
+      <c r="G75">
+        <v>3.879431434762472e-10</v>
+      </c>
+      <c r="H75">
+        <v>7.942028917226274e-08</v>
+      </c>
+      <c r="I75">
+        <v>1.222260024171845e-10</v>
+      </c>
+      <c r="P75">
+        <v>6.145191743033607e-07</v>
+      </c>
+      <c r="Q75">
+        <v>0.0002782022147629426</v>
+      </c>
+      <c r="R75">
+        <v>7.499214461879506e-12</v>
+      </c>
+      <c r="T75">
+        <v>1.334858128191284e-14</v>
+      </c>
+      <c r="Z75">
+        <v>9.528135173559714e-07</v>
+      </c>
+      <c r="AA75">
+        <v>7.181400560221424e-08</v>
+      </c>
+      <c r="AE75">
+        <v>9.590136854481088e-07</v>
+      </c>
+      <c r="AH75">
+        <v>0.2877931323400924</v>
+      </c>
+      <c r="AI75">
+        <v>0.1685870795001951</v>
+      </c>
+      <c r="AJ75">
+        <v>0.1076737714123512</v>
+      </c>
+      <c r="AK75">
+        <v>2.331289600021077e-12</v>
+      </c>
+      <c r="AM75">
+        <v>7.240268168392156e-17</v>
+      </c>
+      <c r="AN75">
+        <v>3.282214431395356e-17</v>
+      </c>
+      <c r="AO75">
+        <v>4.850244099893533e-17</v>
+      </c>
+      <c r="AP75">
+        <v>2.059337036049037e-17</v>
+      </c>
+      <c r="AR75">
+        <v>5.943621936133616e-19</v>
+      </c>
+      <c r="AS75">
+        <v>4.520435554297733e-19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45">
+      <c r="A76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76">
+        <v>-0.9458600703666952</v>
+      </c>
+      <c r="E76">
+        <v>-0.9465585505200166</v>
+      </c>
+      <c r="F76">
+        <v>-0.9877070990009184</v>
+      </c>
+      <c r="G76">
+        <v>-0.9881412177278941</v>
+      </c>
+      <c r="H76">
+        <v>0.965971431147723</v>
+      </c>
+      <c r="I76">
+        <v>0.9794472165820238</v>
+      </c>
+      <c r="P76">
+        <v>0.9366631674399235</v>
+      </c>
+      <c r="Q76">
+        <v>-0.8438903210909758</v>
+      </c>
+      <c r="R76">
+        <v>-0.9959732323597875</v>
+      </c>
+      <c r="T76">
+        <v>0.9918918368538543</v>
+      </c>
+      <c r="Z76">
+        <v>0.9487966925986561</v>
+      </c>
+      <c r="AA76">
+        <v>0.9696671176463706</v>
+      </c>
+      <c r="AE76">
+        <v>0.949536963854275</v>
+      </c>
+      <c r="AH76">
+        <v>-0.3369753409098086</v>
+      </c>
+      <c r="AI76">
+        <v>0.3685683951316428</v>
+      </c>
+      <c r="AJ76">
+        <v>-0.4710461070356911</v>
+      </c>
+      <c r="AK76">
+        <v>-0.9971023735710414</v>
+      </c>
+      <c r="AN76">
+        <v>0.9999870947277043</v>
+      </c>
+      <c r="AO76">
+        <v>0.9999967347334301</v>
+      </c>
+      <c r="AP76">
+        <v>0.9996735856388748</v>
+      </c>
+      <c r="AR76">
+        <v>0.9998568902516592</v>
+      </c>
+      <c r="AS76">
+        <v>0.9998420935341632</v>
+      </c>
+    </row>
+    <row r="77" spans="1:45">
+      <c r="A77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77">
+        <v>3.233488826528787e-07</v>
+      </c>
+      <c r="E77">
+        <v>2.995702171466795e-07</v>
+      </c>
+      <c r="F77">
+        <v>4.852331296245306e-11</v>
+      </c>
+      <c r="G77">
+        <v>3.9144490288707e-11</v>
+      </c>
+      <c r="H77">
+        <v>2.082920735996281e-08</v>
+      </c>
+      <c r="I77">
+        <v>1.041145038356987e-09</v>
+      </c>
+      <c r="P77">
+        <v>8.123493783375581e-07</v>
+      </c>
+      <c r="Q77">
+        <v>0.0001479699285615784</v>
+      </c>
+      <c r="R77">
+        <v>6.102123806343123e-14</v>
+      </c>
+      <c r="T77">
+        <v>4.031522805817134e-12</v>
+      </c>
+      <c r="Z77">
+        <v>2.328862337737911e-07</v>
+      </c>
+      <c r="AA77">
+        <v>1.053358014335153e-08</v>
+      </c>
+      <c r="AE77">
+        <v>2.137464488646554e-07</v>
+      </c>
+      <c r="AH77">
+        <v>0.2387363954604834</v>
+      </c>
+      <c r="AI77">
+        <v>0.1947292834989013</v>
+      </c>
+      <c r="AJ77">
+        <v>0.08910617082817372</v>
+      </c>
+      <c r="AK77">
+        <v>8.492747363216149e-15</v>
+      </c>
+      <c r="AN77">
+        <v>6.66934251013739e-29</v>
+      </c>
+      <c r="AO77">
+        <v>1.749849954205148e-32</v>
+      </c>
+      <c r="AP77">
+        <v>1.745033442428825e-20</v>
+      </c>
+      <c r="AR77">
+        <v>1.23986419680342e-22</v>
+      </c>
+      <c r="AS77">
+        <v>2.237404572329715e-22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:45">
+      <c r="A78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78">
+        <v>-0.9467576365312362</v>
+      </c>
+      <c r="E78">
+        <v>-0.9474477449425074</v>
+      </c>
+      <c r="F78">
+        <v>-0.9873890708469565</v>
+      </c>
+      <c r="G78">
+        <v>-0.9877762811246299</v>
+      </c>
+      <c r="H78">
+        <v>0.9646967501671438</v>
+      </c>
+      <c r="I78">
+        <v>0.9804407739588552</v>
+      </c>
+      <c r="P78">
+        <v>0.9373003594699755</v>
+      </c>
+      <c r="Q78">
+        <v>-0.8411729154662393</v>
+      </c>
+      <c r="R78">
+        <v>-0.9955152077008333</v>
+      </c>
+      <c r="T78">
+        <v>0.9923940059177646</v>
+      </c>
+      <c r="Z78">
+        <v>0.948256088284768</v>
+      </c>
+      <c r="AA78">
+        <v>0.9688936352358988</v>
+      </c>
+      <c r="AE78">
+        <v>0.9484507837325499</v>
+      </c>
+      <c r="AH78">
+        <v>-0.3368026588901359</v>
+      </c>
+      <c r="AI78">
+        <v>0.369514622275301</v>
+      </c>
+      <c r="AJ78">
+        <v>-0.471370404309992</v>
+      </c>
+      <c r="AK78">
+        <v>-0.9967150706995043</v>
+      </c>
+      <c r="AO78">
+        <v>0.9999968123839702</v>
+      </c>
+      <c r="AP78">
+        <v>0.999731732687954</v>
+      </c>
+      <c r="AR78">
+        <v>0.9999029387956987</v>
+      </c>
+      <c r="AS78">
+        <v>0.9998949571444561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:45">
+      <c r="A79" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79">
+        <v>2.930639816132576e-07</v>
+      </c>
+      <c r="E79">
+        <v>2.714078821105798e-07</v>
+      </c>
+      <c r="F79">
+        <v>5.652092166462227e-11</v>
+      </c>
+      <c r="G79">
+        <v>4.691470123553809e-11</v>
+      </c>
+      <c r="H79">
+        <v>2.589978444873645e-08</v>
+      </c>
+      <c r="I79">
+        <v>7.750492930726107e-10</v>
+      </c>
+      <c r="P79">
+        <v>7.65602079297208e-07</v>
+      </c>
+      <c r="Q79">
+        <v>0.0001630976958759388</v>
+      </c>
+      <c r="R79">
+        <v>1.163506028842713e-13</v>
+      </c>
+      <c r="T79">
+        <v>2.750039479458854e-12</v>
+      </c>
+      <c r="Z79">
+        <v>2.477409605174626e-07</v>
+      </c>
+      <c r="AA79">
+        <v>1.223096931730682e-08</v>
+      </c>
+      <c r="AE79">
+        <v>2.423034545209997e-07</v>
+      </c>
+      <c r="AH79">
+        <v>0.2389923414329185</v>
+      </c>
+      <c r="AI79">
+        <v>0.1934973826712877</v>
+      </c>
+      <c r="AJ79">
+        <v>0.08885600343882612</v>
+      </c>
+      <c r="AK79">
+        <v>1.801312769365063e-14</v>
+      </c>
+      <c r="AO79">
+        <v>1.514554980641889e-32</v>
+      </c>
+      <c r="AP79">
+        <v>5.378347673013612e-21</v>
+      </c>
+      <c r="AR79">
+        <v>1.20691232090989e-23</v>
+      </c>
+      <c r="AS79">
+        <v>1.939069410018445e-23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45">
+      <c r="A80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80">
+        <v>-0.9463146845458188</v>
+      </c>
+      <c r="E80">
+        <v>-0.9470089561745083</v>
+      </c>
+      <c r="F80">
+        <v>-0.987550373345454</v>
+      </c>
+      <c r="G80">
+        <v>-0.9879609005101335</v>
+      </c>
+      <c r="H80">
+        <v>0.9653333691849021</v>
+      </c>
+      <c r="I80">
+        <v>0.9799501498657522</v>
+      </c>
+      <c r="P80">
+        <v>0.9369864763336866</v>
+      </c>
+      <c r="Q80">
+        <v>-0.8425262171675479</v>
+      </c>
+      <c r="R80">
+        <v>-0.9957460555497272</v>
+      </c>
+      <c r="T80">
+        <v>0.992147635908207</v>
+      </c>
+      <c r="Z80">
+        <v>0.9485278864456329</v>
+      </c>
+      <c r="AA80">
+        <v>0.9692811824991313</v>
+      </c>
+      <c r="AE80">
+        <v>0.9489937436565988</v>
+      </c>
+      <c r="AH80">
+        <v>-0.3368895117414645</v>
+      </c>
+      <c r="AI80">
+        <v>0.3690460396184593</v>
+      </c>
+      <c r="AJ80">
+        <v>-0.4712108673448489</v>
+      </c>
+      <c r="AK80">
+        <v>-0.9969107750343349</v>
+      </c>
+      <c r="AP80">
+        <v>0.9997060433774219</v>
+      </c>
+      <c r="AR80">
+        <v>0.9998832756616356</v>
+      </c>
+      <c r="AS80">
+        <v>0.9998719067329089</v>
+      </c>
+    </row>
+    <row r="81" spans="1:45">
+      <c r="A81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81">
+        <v>3.077021310647608e-07</v>
+      </c>
+      <c r="E81">
+        <v>2.850179370858455e-07</v>
+      </c>
+      <c r="F81">
+        <v>5.23378094673899e-11</v>
+      </c>
+      <c r="G81">
+        <v>4.283763542842133e-11</v>
+      </c>
+      <c r="H81">
+        <v>2.325297600707526e-08</v>
+      </c>
+      <c r="I81">
+        <v>8.983094080434778e-10</v>
+      </c>
+      <c r="P81">
+        <v>7.883442670809612e-07</v>
+      </c>
+      <c r="Q81">
+        <v>0.0001554146819486863</v>
+      </c>
+      <c r="R81">
+        <v>8.47775223046201e-14</v>
+      </c>
+      <c r="T81">
+        <v>3.327941031172958e-12</v>
+      </c>
+      <c r="Z81">
+        <v>2.401775701844262e-07</v>
+      </c>
+      <c r="AA81">
+        <v>1.135422162920029e-08</v>
+      </c>
+      <c r="AE81">
+        <v>2.276583344373865e-07</v>
+      </c>
+      <c r="AH81">
+        <v>0.2388635888110631</v>
+      </c>
+      <c r="AI81">
+        <v>0.194106811808554</v>
+      </c>
+      <c r="AJ81">
+        <v>0.0889790110457882</v>
+      </c>
+      <c r="AK81">
+        <v>1.246558138649873e-14</v>
+      </c>
+      <c r="AP81">
+        <v>9.309318941359955e-21</v>
+      </c>
+      <c r="AR81">
+        <v>3.65049613268184e-23</v>
+      </c>
+      <c r="AS81">
+        <v>6.37574006718278e-23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:45">
+      <c r="A82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82">
+        <v>-0.9459454723125093</v>
+      </c>
+      <c r="E82">
+        <v>-0.9466324950180246</v>
+      </c>
+      <c r="F82">
+        <v>-0.9851934423731099</v>
+      </c>
+      <c r="G82">
+        <v>-0.9855890905637235</v>
+      </c>
+      <c r="H82">
+        <v>0.9630840616159689</v>
+      </c>
+      <c r="I82">
+        <v>0.9816968795990328</v>
+      </c>
+      <c r="P82">
+        <v>0.9357567987505986</v>
+      </c>
+      <c r="Q82">
+        <v>-0.8351344370150612</v>
+      </c>
+      <c r="R82">
+        <v>-0.9944865064722606</v>
+      </c>
+      <c r="T82">
+        <v>0.9930543853654086</v>
+      </c>
+      <c r="Z82">
+        <v>0.9478593670250547</v>
+      </c>
+      <c r="AA82">
+        <v>0.965351341375469</v>
+      </c>
+      <c r="AE82">
+        <v>0.9446141293459266</v>
+      </c>
+      <c r="AH82">
+        <v>-0.3350088048263551</v>
+      </c>
+      <c r="AI82">
+        <v>0.3787144586441777</v>
+      </c>
+      <c r="AJ82">
+        <v>-0.4753375646305558</v>
+      </c>
+      <c r="AK82">
+        <v>-0.9957850091578713</v>
+      </c>
+      <c r="AR82">
+        <v>0.9997403115197399</v>
+      </c>
+      <c r="AS82">
+        <v>0.9997425575361774</v>
+      </c>
+    </row>
+    <row r="83" spans="1:45">
+      <c r="A83" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83">
+        <v>3.203604557022093e-07</v>
+      </c>
+      <c r="E83">
+        <v>2.971398788936176e-07</v>
+      </c>
+      <c r="F83">
+        <v>1.473658831975641e-10</v>
+      </c>
+      <c r="G83">
+        <v>1.253692429965486e-10</v>
+      </c>
+      <c r="H83">
+        <v>3.374186904433325e-08</v>
+      </c>
+      <c r="I83">
+        <v>5.218526227250139e-10</v>
+      </c>
+      <c r="P83">
+        <v>8.828821818757083e-07</v>
+      </c>
+      <c r="Q83">
+        <v>0.0002012254046640319</v>
+      </c>
+      <c r="R83">
+        <v>4.007897625543067e-13</v>
+      </c>
+      <c r="T83">
+        <v>1.596921108472146e-12</v>
+      </c>
+      <c r="Z83">
+        <v>2.591332837852433e-07</v>
+      </c>
+      <c r="AA83">
+        <v>2.318164461934486e-08</v>
+      </c>
+      <c r="AE83">
+        <v>3.696359795113211e-07</v>
+      </c>
+      <c r="AH83">
+        <v>0.2416610928002514</v>
+      </c>
+      <c r="AI83">
+        <v>0.1817789983997022</v>
+      </c>
+      <c r="AJ83">
+        <v>0.08583530512724513</v>
+      </c>
+      <c r="AK83">
+        <v>8.023169316369325e-14</v>
+      </c>
+      <c r="AR83">
+        <v>4.425541520712803e-21</v>
+      </c>
+      <c r="AS83">
+        <v>4.200814458078106e-21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:45">
+      <c r="A84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84">
+        <v>0.950875589117987</v>
+      </c>
+      <c r="C84">
+        <v>0.9509097531059419</v>
+      </c>
+      <c r="D84">
+        <v>0.8974497450678326</v>
+      </c>
+      <c r="E84">
+        <v>0.8983206382672465</v>
+      </c>
+      <c r="F84">
+        <v>0.981793858319603</v>
+      </c>
+      <c r="G84">
+        <v>0.9829536795979444</v>
+      </c>
+      <c r="H84">
+        <v>-0.9752904956219696</v>
+      </c>
+      <c r="I84">
+        <v>-0.921548087932806</v>
+      </c>
+      <c r="J84">
+        <v>-0.9436420790107294</v>
+      </c>
+      <c r="K84">
+        <v>0.5636964878696616</v>
+      </c>
+      <c r="L84">
+        <v>-0.937119173993889</v>
+      </c>
+      <c r="M84">
+        <v>-0.9430415690095115</v>
+      </c>
+      <c r="N84">
+        <v>-0.9492718451481744</v>
+      </c>
+      <c r="O84">
+        <v>-0.9899743292618411</v>
+      </c>
+      <c r="P84">
+        <v>-0.8938107857071299</v>
+      </c>
+      <c r="Q84">
+        <v>0.9024283943037114</v>
+      </c>
+      <c r="R84">
+        <v>0.9876476292015693</v>
+      </c>
+      <c r="T84">
+        <v>-0.9400542699940219</v>
+      </c>
+      <c r="U84">
+        <v>-0.7801200439228291</v>
+      </c>
+      <c r="V84">
+        <v>-0.5892608111393879</v>
+      </c>
+      <c r="W84">
+        <v>-0.950659010489963</v>
+      </c>
+      <c r="X84">
+        <v>0.5914197968694999</v>
+      </c>
+      <c r="Y84">
+        <v>-0.9957145350907267</v>
+      </c>
+      <c r="Z84">
+        <v>-0.9775028844200306</v>
+      </c>
+      <c r="AA84">
+        <v>-0.9913615096104589</v>
+      </c>
+      <c r="AB84">
+        <v>-0.9207649531629444</v>
+      </c>
+      <c r="AC84">
+        <v>0.8437169544920377</v>
+      </c>
+      <c r="AD84">
+        <v>-0.9900329503508606</v>
+      </c>
+      <c r="AE84">
+        <v>-0.9859357222303122</v>
+      </c>
+      <c r="AF84">
+        <v>-0.981911363101086</v>
+      </c>
+      <c r="AG84">
+        <v>-0.9776419081256251</v>
+      </c>
+      <c r="AH84">
+        <v>0.4533660994594701</v>
+      </c>
+      <c r="AI84">
+        <v>-0.2649736944477654</v>
+      </c>
+      <c r="AJ84">
+        <v>0.5436206035209823</v>
+      </c>
+      <c r="AK84">
+        <v>0.986619189616204</v>
+      </c>
+      <c r="AL84">
+        <v>-0.9627047585829271</v>
+      </c>
+      <c r="AM84">
+        <v>-0.9752574079391931</v>
+      </c>
+      <c r="AN84">
+        <v>-0.9744565814003986</v>
+      </c>
+      <c r="AO84">
+        <v>-0.9748577624936509</v>
+      </c>
+      <c r="AP84">
+        <v>-0.9723013302402055</v>
+      </c>
+      <c r="AR84">
+        <v>-0.9713869506095955</v>
+      </c>
+      <c r="AS84">
+        <v>-0.9711855187451331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:45">
+      <c r="A85" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85">
+        <v>1.824371725221646e-07</v>
+      </c>
+      <c r="C85">
+        <v>1.816907917549327e-07</v>
+      </c>
+      <c r="D85">
+        <v>1.341862619462755e-05</v>
+      </c>
+      <c r="E85">
+        <v>1.27740498752915e-05</v>
+      </c>
+      <c r="F85">
+        <v>5.055864920545848e-10</v>
+      </c>
+      <c r="G85">
+        <v>3.414748488676549e-10</v>
+      </c>
+      <c r="H85">
+        <v>3.115792537196244e-09</v>
+      </c>
+      <c r="I85">
+        <v>2.837644787164498e-06</v>
+      </c>
+      <c r="J85">
+        <v>4.09435259068245e-07</v>
+      </c>
+      <c r="K85">
+        <v>0.03578366226434651</v>
+      </c>
+      <c r="L85">
+        <v>7.786626800963857e-07</v>
+      </c>
+      <c r="M85">
+        <v>4.35744612327669e-07</v>
+      </c>
+      <c r="N85">
+        <v>2.20445545054959e-07</v>
+      </c>
+      <c r="O85">
+        <v>1.434907830742867e-11</v>
+      </c>
+      <c r="P85">
+        <v>1.640739364678364e-05</v>
+      </c>
+      <c r="Q85">
+        <v>1.006584099373779e-05</v>
+      </c>
+      <c r="R85">
+        <v>4.99425194351315e-11</v>
+      </c>
+      <c r="T85">
+        <v>5.882856322102495e-07</v>
+      </c>
+      <c r="U85">
+        <v>0.0009969717329586791</v>
+      </c>
+      <c r="V85">
+        <v>0.02659034440147083</v>
+      </c>
+      <c r="W85">
+        <v>1.872280056793331e-07</v>
+      </c>
+      <c r="X85">
+        <v>0.02590436068650322</v>
+      </c>
+      <c r="Y85">
+        <v>8.861109636502986e-14</v>
+      </c>
+      <c r="Z85">
+        <v>1.783296375883578e-09</v>
+      </c>
+      <c r="AA85">
+        <v>5.889334317689176e-12</v>
+      </c>
+      <c r="AB85">
+        <v>3.006690644794641e-06</v>
+      </c>
+      <c r="AC85">
+        <v>0.000148899723046433</v>
+      </c>
+      <c r="AD85">
+        <v>1.385472405162951e-11</v>
+      </c>
+      <c r="AE85">
+        <v>1.084105830529315e-10</v>
+      </c>
+      <c r="AF85">
+        <v>4.864443215919243e-10</v>
+      </c>
+      <c r="AG85">
+        <v>1.718705381587748e-09</v>
+      </c>
+      <c r="AH85">
+        <v>0.1035002008351951</v>
+      </c>
+      <c r="AI85">
+        <v>0.3599174953929004</v>
+      </c>
+      <c r="AJ85">
+        <v>0.044504306773248</v>
+      </c>
+      <c r="AK85">
+        <v>8.051949994247089e-11</v>
+      </c>
+      <c r="AL85">
+        <v>3.584660209393836e-08</v>
+      </c>
+      <c r="AM85">
+        <v>3.140685150531718e-09</v>
+      </c>
+      <c r="AN85">
+        <v>3.795549472938067e-09</v>
+      </c>
+      <c r="AO85">
+        <v>3.454627151527831e-09</v>
+      </c>
+      <c r="AP85">
+        <v>6.142244445980122e-09</v>
+      </c>
+      <c r="AR85">
+        <v>7.449001054299682e-09</v>
+      </c>
+      <c r="AS85">
+        <v>7.765839436236875e-09</v>
+      </c>
+    </row>
+    <row r="86" spans="1:45">
+      <c r="A86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86">
+        <v>-0.9474228456219804</v>
+      </c>
+      <c r="E86">
+        <v>-0.9481077001511448</v>
+      </c>
+      <c r="F86">
+        <v>-0.9861598440642453</v>
+      </c>
+      <c r="G86">
+        <v>-0.9865417900678515</v>
+      </c>
+      <c r="H86">
+        <v>0.9633610240169154</v>
+      </c>
+      <c r="I86">
+        <v>0.981815213167284</v>
+      </c>
+      <c r="P86">
+        <v>0.9378478844595841</v>
+      </c>
+      <c r="Q86">
+        <v>-0.8378261339109224</v>
+      </c>
+      <c r="R86">
+        <v>-0.9946065641257056</v>
+      </c>
+      <c r="T86">
+        <v>0.9938289656015415</v>
+      </c>
+      <c r="Z86">
+        <v>0.9445688896516887</v>
+      </c>
+      <c r="AA86">
+        <v>0.9660452369807145</v>
+      </c>
+      <c r="AE86">
+        <v>0.9448940018459974</v>
+      </c>
+      <c r="AH86">
+        <v>-0.3269389480058901</v>
+      </c>
+      <c r="AI86">
+        <v>0.3758169205381735</v>
+      </c>
+      <c r="AJ86">
+        <v>-0.4641123069902595</v>
+      </c>
+      <c r="AK86">
+        <v>-0.9958927511318427</v>
+      </c>
+      <c r="AS86">
+        <v>0.999999055941314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:45">
+      <c r="A87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87">
+        <v>2.721655295694028e-07</v>
+      </c>
+      <c r="E87">
+        <v>2.519525923033585e-07</v>
+      </c>
+      <c r="F87">
+        <v>9.849692958299718e-11</v>
+      </c>
+      <c r="G87">
+        <v>8.334085457857573e-11</v>
+      </c>
+      <c r="H87">
+        <v>3.227060775253097e-08</v>
+      </c>
+      <c r="I87">
+        <v>5.020618904871073e-10</v>
+      </c>
+      <c r="P87">
+        <v>7.272280178762648e-07</v>
+      </c>
+      <c r="Q87">
+        <v>0.0001834271103329578</v>
+      </c>
+      <c r="R87">
+        <v>3.512857165133652e-13</v>
+      </c>
+      <c r="T87">
+        <v>7.868462393493758e-13</v>
+      </c>
+      <c r="Z87">
+        <v>3.714144090966717e-07</v>
+      </c>
+      <c r="AA87">
+        <v>2.056290524803741e-08</v>
+      </c>
+      <c r="AE87">
+        <v>3.587895402166758e-07</v>
+      </c>
+      <c r="AH87">
+        <v>0.253890965221537</v>
+      </c>
+      <c r="AI87">
+        <v>0.1854192015430894</v>
+      </c>
+      <c r="AJ87">
+        <v>0.09457332297950304</v>
+      </c>
+      <c r="AK87">
+        <v>6.870252343851938e-14</v>
+      </c>
+      <c r="AS87">
+        <v>1.022080430647705e-35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:45">
+      <c r="A88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88">
+        <v>-0.9476693079313749</v>
+      </c>
+      <c r="E88">
+        <v>-0.9483516590757741</v>
+      </c>
+      <c r="F88">
+        <v>-0.9860636362281656</v>
+      </c>
+      <c r="G88">
+        <v>-0.986431204249001</v>
+      </c>
+      <c r="H88">
+        <v>0.96300259918737</v>
+      </c>
+      <c r="I88">
+        <v>0.9820685440275195</v>
+      </c>
+      <c r="P88">
+        <v>0.9380736119044474</v>
+      </c>
+      <c r="Q88">
+        <v>-0.837094975821094</v>
+      </c>
+      <c r="R88">
+        <v>-0.9944759568403826</v>
+      </c>
+      <c r="T88">
+        <v>0.9939365312820859</v>
+      </c>
+      <c r="Z88">
+        <v>0.9444533266425913</v>
+      </c>
+      <c r="AA88">
+        <v>0.9658678035673119</v>
+      </c>
+      <c r="AE88">
+        <v>0.9446118038533712</v>
+      </c>
+      <c r="AH88">
+        <v>-0.3270943904582737</v>
+      </c>
+      <c r="AI88">
+        <v>0.3758399946992205</v>
+      </c>
+      <c r="AJ88">
+        <v>-0.4643097927239478</v>
+      </c>
+      <c r="AK88">
+        <v>-0.9957812396460493</v>
+      </c>
+    </row>
+    <row r="89" spans="1:45">
+      <c r="A89" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89">
+        <v>2.647425232753305e-07</v>
+      </c>
+      <c r="E89">
+        <v>2.450593661486323e-07</v>
+      </c>
+      <c r="F89">
+        <v>1.026558282747794e-10</v>
+      </c>
+      <c r="G89">
+        <v>8.751419974266178e-11</v>
+      </c>
+      <c r="H89">
+        <v>3.418503446395566e-08</v>
+      </c>
+      <c r="I89">
+        <v>4.617838452280711e-10</v>
+      </c>
+      <c r="P89">
+        <v>7.118769112448061e-07</v>
+      </c>
+      <c r="Q89">
+        <v>0.0001881303196557551</v>
+      </c>
+      <c r="R89">
+        <v>4.054039207476209e-13</v>
+      </c>
+      <c r="T89">
+        <v>7.082217547317199e-13</v>
+      </c>
+      <c r="Z89">
+        <v>3.759894604272215e-07</v>
+      </c>
+      <c r="AA89">
+        <v>2.120793144280842e-08</v>
+      </c>
+      <c r="AE89">
+        <v>3.697272256787186e-07</v>
+      </c>
+      <c r="AH89">
+        <v>0.2536519275575111</v>
+      </c>
+      <c r="AI89">
+        <v>0.1853900299296264</v>
+      </c>
+      <c r="AJ89">
+        <v>0.09441446238948513</v>
+      </c>
+      <c r="AK89">
+        <v>8.066251662191171e-14</v>
       </c>
     </row>
   </sheetData>
